--- a/ZCTA_data.xlsx
+++ b/ZCTA_data.xlsx
@@ -1002,99 +1002,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ZCTA5 02806</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>197545</v>
-      </c>
+          <t>ZCTA5 02833</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>7375</v>
+        <v>300</v>
       </c>
       <c r="F2" t="n">
-        <v>1362</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35725</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="I2" t="n">
-        <v>36590</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31505</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>14845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>585</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12780</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>56</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1140</v>
-      </c>
-      <c r="T2" t="n">
-        <v>182755</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13440</v>
-      </c>
-      <c r="V2" t="n">
-        <v>780</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>7005</v>
+        <v>288</v>
       </c>
       <c r="X2" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>44</v>
       </c>
       <c r="AA2" t="n">
-        <v>2806</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>26.78576271186441</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>27.60114503816794</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23.80585516178737</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20.97345132743363</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>26.08922198429693</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>59.73333333333333</v>
-      </c>
+        <v>2833</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
         <v>2015</v>
       </c>
@@ -1108,86 +1074,86 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ZCTA5 02816</t>
+          <t>ZCTA5 02863</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>440305</v>
+        <v>222930</v>
       </c>
       <c r="E3" t="n">
-        <v>16365</v>
+        <v>7734</v>
       </c>
       <c r="F3" t="n">
-        <v>2577</v>
+        <v>876</v>
       </c>
       <c r="G3" t="n">
-        <v>68480</v>
+        <v>20410</v>
       </c>
       <c r="H3" t="n">
-        <v>2235</v>
+        <v>354</v>
       </c>
       <c r="I3" t="n">
-        <v>60605</v>
+        <v>6905</v>
       </c>
       <c r="J3" t="n">
-        <v>1619</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>39770</v>
+        <v>14165</v>
       </c>
       <c r="L3" t="n">
-        <v>696</v>
+        <v>107</v>
       </c>
       <c r="M3" t="n">
-        <v>17380</v>
+        <v>4545</v>
       </c>
       <c r="N3" t="n">
-        <v>1027</v>
+        <v>276</v>
       </c>
       <c r="O3" t="n">
-        <v>21420</v>
+        <v>7025</v>
       </c>
       <c r="P3" t="n">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="Q3" t="n">
-        <v>11960</v>
+        <v>8455</v>
       </c>
       <c r="R3" t="n">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="S3" t="n">
-        <v>5200</v>
+        <v>4910</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>16172</v>
+        <v>6615</v>
       </c>
       <c r="X3" t="n">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="Z3" t="n">
         <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>2816</v>
+        <v>2863</v>
       </c>
       <c r="AB3" t="n">
-        <v>26.90528567063856</v>
+        <v>28.82467028704422</v>
       </c>
       <c r="AC3" t="n">
-        <v>26.8256442227764</v>
+        <v>22.20731707317073</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.68682505399568</v>
+        <v>31.39261744966443</v>
       </c>
       <c r="AE3" t="n">
-        <v>24.83630952380953</v>
+        <v>23.59756097560976</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -1204,65 +1170,99 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ZCTA5 02828</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>ZCTA5 02896</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>154620</v>
+      </c>
       <c r="E4" t="n">
-        <v>3577</v>
+        <v>5801</v>
       </c>
       <c r="F4" t="n">
-        <v>474</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>1037</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28425</v>
+      </c>
       <c r="H4" t="n">
-        <v>529</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>521</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12095</v>
+      </c>
       <c r="J4" t="n">
-        <v>633</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>742</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18900</v>
+      </c>
       <c r="L4" t="n">
-        <v>223</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>402</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7370</v>
+      </c>
       <c r="N4" t="n">
-        <v>110</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9995</v>
+      </c>
       <c r="P4" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2250</v>
+      </c>
       <c r="R4" t="n">
-        <v>9</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>630</v>
+      </c>
+      <c r="T4" t="n">
+        <v>150375</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2235</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1655</v>
+      </c>
       <c r="W4" t="n">
-        <v>3506</v>
+        <v>5669</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="n">
         <v>44</v>
       </c>
       <c r="AA4" t="n">
-        <v>2828</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+        <v>2896</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26.65402516807447</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>26.00770218228498</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>22.96328671328672</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23.63899613899613</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>26.52584230022932</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>67.72727272727273</v>
+      </c>
       <c r="AH4" t="n">
         <v>2015</v>
       </c>
@@ -1276,77 +1276,89 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZCTA5 02832</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>ZCTA5 02904</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>275965</v>
+      </c>
       <c r="E5" t="n">
-        <v>2580</v>
+        <v>13052</v>
       </c>
       <c r="F5" t="n">
-        <v>453</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1545</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30370</v>
+      </c>
       <c r="H5" t="n">
-        <v>217</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1800</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34670</v>
+      </c>
       <c r="J5" t="n">
-        <v>330</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>1794</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31160</v>
+      </c>
       <c r="L5" t="n">
-        <v>89</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>798</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13120</v>
+      </c>
       <c r="N5" t="n">
-        <v>72</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>821</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12655</v>
+      </c>
       <c r="P5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>315</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6485</v>
+      </c>
       <c r="R5" t="n">
-        <v>51</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>86075</v>
-      </c>
-      <c r="U5" t="n">
-        <v>-666666666</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-666666666</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8090</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2580</v>
+        <v>12109</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Z5" t="n">
         <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>2832</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>33.3624031007752</v>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+        <v>2904</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21.1435029114312</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19.44394618834081</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17.08333333333333</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.84859154929578</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
         <v>2015</v>
       </c>
@@ -1360,63 +1372,87 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZCTA5 02838</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>ZCTA5 02909</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>405340</v>
+      </c>
       <c r="E6" t="n">
-        <v>1922</v>
+        <v>16513</v>
       </c>
       <c r="F6" t="n">
-        <v>289</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>1676</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37025</v>
+      </c>
       <c r="H6" t="n">
-        <v>214</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1377</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32500</v>
+      </c>
       <c r="J6" t="n">
-        <v>74</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>2611</v>
+      </c>
+      <c r="K6" t="n">
+        <v>63555</v>
+      </c>
       <c r="L6" t="n">
-        <v>66</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>810</v>
+      </c>
+      <c r="M6" t="n">
+        <v>17515</v>
+      </c>
       <c r="N6" t="n">
-        <v>240</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>1982</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41755</v>
+      </c>
       <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>844</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>18165</v>
+      </c>
       <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>462</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6830</v>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>1906</v>
+        <v>13101</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>1779</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="Z6" t="n">
         <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>2838</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+        <v>2909</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24.54672076545752</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>22.77268260727154</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>23.69774919614148</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21.20311394196744</v>
+      </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
@@ -1432,86 +1468,86 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ZCTA5 02864</t>
+          <t>ZCTA5 02917</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>465690</v>
+        <v>142535</v>
       </c>
       <c r="E7" t="n">
-        <v>17260</v>
+        <v>6440</v>
       </c>
       <c r="F7" t="n">
-        <v>2760</v>
+        <v>1161</v>
       </c>
       <c r="G7" t="n">
-        <v>87580</v>
+        <v>25340</v>
       </c>
       <c r="H7" t="n">
-        <v>2281</v>
+        <v>986</v>
       </c>
       <c r="I7" t="n">
-        <v>52515</v>
+        <v>18525</v>
       </c>
       <c r="J7" t="n">
-        <v>2025</v>
+        <v>896</v>
       </c>
       <c r="K7" t="n">
-        <v>48065</v>
+        <v>20835</v>
       </c>
       <c r="L7" t="n">
-        <v>1274</v>
+        <v>441</v>
       </c>
       <c r="M7" t="n">
-        <v>25680</v>
+        <v>8385</v>
       </c>
       <c r="N7" t="n">
-        <v>1190</v>
+        <v>401</v>
       </c>
       <c r="O7" t="n">
-        <v>22520</v>
+        <v>7570</v>
       </c>
       <c r="P7" t="n">
-        <v>360</v>
+        <v>81</v>
       </c>
       <c r="Q7" t="n">
-        <v>6590</v>
+        <v>880</v>
       </c>
       <c r="R7" t="n">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="S7" t="n">
-        <v>520</v>
+        <v>2290</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>16251</v>
+        <v>5728</v>
       </c>
       <c r="X7" t="n">
-        <v>505</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="n">
         <v>44</v>
       </c>
       <c r="AA7" t="n">
-        <v>2864</v>
+        <v>2917</v>
       </c>
       <c r="AB7" t="n">
-        <v>26.98088064889919</v>
+        <v>22.13276397515528</v>
       </c>
       <c r="AC7" t="n">
-        <v>27.79111287442968</v>
+        <v>20.43083372147182</v>
       </c>
       <c r="AD7" t="n">
-        <v>22.35374355865414</v>
+        <v>21.8548990276739</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.78064516129032</v>
+        <v>17.53112033195021</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
@@ -1528,89 +1564,77 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZCTA5 02878</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>216995</v>
-      </c>
+          <t>ZCTA5 02802</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>7835</v>
+        <v>554</v>
       </c>
       <c r="F8" t="n">
-        <v>1275</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36015</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1165</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27775</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>939</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20235</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>340</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7710</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>578</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15055</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3445</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>108</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2330</v>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>13150</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-666666666</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-666666666</v>
+      </c>
       <c r="W8" t="n">
-        <v>7702</v>
+        <v>554</v>
       </c>
       <c r="X8" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>2878</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27.69559668155712</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>26.14344262295082</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>21.84910086004691</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>24.76572958500669</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+        <v>2802</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>23.73646209386282</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
       <c r="AH8" t="n">
         <v>2015</v>
       </c>
@@ -1624,58 +1648,58 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ZCTA5 02892</t>
+          <t>ZCTA5 02826</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>2257</v>
+        <v>301</v>
       </c>
       <c r="F9" t="n">
-        <v>441</v>
+        <v>130</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2216</v>
+        <v>301</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>44</v>
       </c>
       <c r="AA9" t="n">
-        <v>2892</v>
+        <v>2826</v>
       </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1696,89 +1720,75 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ZCTA5 02893</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>331840</v>
-      </c>
+          <t>ZCTA5 02841</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>14587</v>
+        <v>709</v>
       </c>
       <c r="F10" t="n">
-        <v>1602</v>
-      </c>
-      <c r="G10" t="n">
-        <v>41970</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>2015</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38965</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41025</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>764</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>737</v>
-      </c>
-      <c r="O10" t="n">
-        <v>20560</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>329</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>285</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4495</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>5885</v>
+      </c>
+      <c r="U10" t="n">
+        <v>520</v>
+      </c>
+      <c r="V10" t="n">
+        <v>470</v>
+      </c>
       <c r="W10" t="n">
-        <v>14034</v>
+        <v>274</v>
       </c>
       <c r="X10" t="n">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="n">
         <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>2893</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>22.74902310276273</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>22.37627868399226</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19.6795827123696</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>25.73639774859287</v>
-      </c>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+        <v>2841</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>21.47810218978102</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>40</v>
+      </c>
       <c r="AH10" t="n">
         <v>2015</v>
       </c>
@@ -1792,99 +1802,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ZCTA5 02895</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>444430</v>
-      </c>
+          <t>ZCTA5 02872</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>17075</v>
+        <v>104</v>
       </c>
       <c r="F11" t="n">
-        <v>1938</v>
-      </c>
-      <c r="G11" t="n">
-        <v>49725</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1624</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1426</v>
-      </c>
-      <c r="K11" t="n">
-        <v>27920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>637</v>
-      </c>
-      <c r="M11" t="n">
-        <v>11855</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>943</v>
-      </c>
-      <c r="O11" t="n">
-        <v>20630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>565</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>10965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>272</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6900</v>
-      </c>
-      <c r="T11" t="n">
-        <v>397350</v>
-      </c>
-      <c r="U11" t="n">
-        <v>14675</v>
-      </c>
-      <c r="V11" t="n">
-        <v>16545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>15306</v>
+        <v>93</v>
       </c>
       <c r="X11" t="n">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>2895</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26.02811127379209</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>24.34587310499719</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.28017450315075</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>20.95159151193634</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25.96040768326147</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>57.1011673151751</v>
-      </c>
+        <v>2872</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
         <v>2015</v>
       </c>
@@ -1898,71 +1874,55 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ZCTA5 02910</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>217265</v>
-      </c>
+          <t>ZCTA5 02873</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>10106</v>
+        <v>176</v>
       </c>
       <c r="F12" t="n">
-        <v>1552</v>
-      </c>
-      <c r="G12" t="n">
-        <v>37755</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1401</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>1326</v>
-      </c>
-      <c r="K12" t="n">
-        <v>24700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>525</v>
-      </c>
-      <c r="M12" t="n">
-        <v>8310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>824</v>
-      </c>
-      <c r="O12" t="n">
-        <v>12350</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>344</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>194</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>201245</v>
+        <v>5045</v>
       </c>
       <c r="U12" t="n">
-        <v>12815</v>
+        <v>-666666666</v>
       </c>
       <c r="V12" t="n">
         <v>-666666666</v>
       </c>
       <c r="W12" t="n">
-        <v>9642</v>
+        <v>176</v>
       </c>
       <c r="X12" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1971,25 +1931,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>2910</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21.49861468434593</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>23.57602438198442</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17.83360345759049</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
+        <v>2873</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>20.87170711470649</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>50.45275590551181</v>
+        <v>28.66477272727273</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="AH12" t="n">
         <v>2015</v>
@@ -2004,89 +1958,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ZCTA5 02914</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>206630</v>
-      </c>
+          <t>ZCTA5 02876</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>9795</v>
+        <v>202</v>
       </c>
       <c r="F13" t="n">
-        <v>1118</v>
-      </c>
-      <c r="G13" t="n">
-        <v>29755</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1292</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22670</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>1339</v>
-      </c>
-      <c r="K13" t="n">
-        <v>25185</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>526</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>666</v>
-      </c>
-      <c r="O13" t="n">
-        <v>12015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>366</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>189</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2170</v>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>6200</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-666666666</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-666666666</v>
+      </c>
       <c r="W13" t="n">
-        <v>9029</v>
+        <v>202</v>
       </c>
       <c r="X13" t="n">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>44</v>
       </c>
       <c r="AA13" t="n">
-        <v>2914</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21.09545686574783</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>21.75311203319502</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18.54959785522788</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16.63759689922481</v>
-      </c>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
+        <v>2876</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>30.69306930693069</v>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
       <c r="AH13" t="n">
         <v>2015</v>
       </c>
@@ -2100,87 +2042,63 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ZCTA5 02915</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>176895</v>
-      </c>
+          <t>ZCTA5 02912</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>7681</v>
+        <v>506</v>
       </c>
       <c r="F14" t="n">
-        <v>1317</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31245</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>1135</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25595</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>840</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16530</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>688</v>
-      </c>
-      <c r="M14" t="n">
-        <v>14950</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>324</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>224</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5245</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>340</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>7463</v>
+        <v>106</v>
       </c>
       <c r="X14" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>44</v>
       </c>
       <c r="AA14" t="n">
-        <v>2915</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>23.03020440046869</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>23.1810766721044</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20.6020942408377</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>20.52007299270073</v>
-      </c>
+        <v>2912</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
@@ -2196,58 +2114,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ZCTA5 02921</t>
+          <t>ZCTA5 02808</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>6398</v>
+        <v>1237</v>
       </c>
       <c r="F15" t="n">
-        <v>937</v>
+        <v>101</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>983</v>
+        <v>133</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>1178</v>
+        <v>127</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>434</v>
+        <v>91</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>530</v>
+        <v>23</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>6244</v>
+        <v>1237</v>
       </c>
       <c r="X15" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>2921</v>
+        <v>2808</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -2268,87 +2186,63 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ZCTA5 02919</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>326505</v>
-      </c>
+          <t>ZCTA5 02812</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>14843</v>
+        <v>847</v>
       </c>
       <c r="F16" t="n">
-        <v>2126</v>
-      </c>
-      <c r="G16" t="n">
-        <v>51390</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>2044</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41975</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>2142</v>
-      </c>
-      <c r="K16" t="n">
-        <v>40255</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1026</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24790</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1023</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19135</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
-        <v>214</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6015</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>123</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>14569</v>
+        <v>814</v>
       </c>
       <c r="X16" t="n">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
         <v>44</v>
       </c>
       <c r="AA16" t="n">
-        <v>2919</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21.99723775517078</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>22.38968824940048</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>20.53188131313131</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>20.33144704931285</v>
-      </c>
+        <v>2812</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
@@ -2364,65 +2258,99 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ZCTA5 02815</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>ZCTA5 02818</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>200100</v>
+      </c>
       <c r="E17" t="n">
-        <v>103</v>
+        <v>8440</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>1261</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32790</v>
+      </c>
       <c r="H17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1377</v>
+      </c>
+      <c r="I17" t="n">
+        <v>35005</v>
+      </c>
       <c r="J17" t="n">
-        <v>28</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>1149</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23265</v>
+      </c>
       <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>902</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15800</v>
+      </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
+        <v>552</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8850</v>
+      </c>
       <c r="P17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+        <v>348</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4940</v>
+      </c>
       <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+        <v>93</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2305</v>
+      </c>
+      <c r="T17" t="n">
+        <v>182480</v>
+      </c>
+      <c r="U17" t="n">
+        <v>9835</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6950</v>
+      </c>
       <c r="W17" t="n">
-        <v>103</v>
+        <v>8001</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Z17" t="n">
         <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>2815</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+        <v>2818</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23.7085308056872</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>25.69939347990902</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>19.04680643588493</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15.32222222222222</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22.8071491063617</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>57.85294117647059</v>
+      </c>
       <c r="AH17" t="n">
         <v>2015</v>
       </c>
@@ -2436,63 +2364,87 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ZCTA5 02831</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>ZCTA5 02825</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>96215</v>
+      </c>
       <c r="E18" t="n">
-        <v>1580</v>
+        <v>2803</v>
       </c>
       <c r="F18" t="n">
-        <v>327</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>475</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17940</v>
+      </c>
       <c r="H18" t="n">
-        <v>195</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>219</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6405</v>
+      </c>
       <c r="J18" t="n">
-        <v>260</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12480</v>
+      </c>
       <c r="L18" t="n">
-        <v>22</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>106</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2385</v>
+      </c>
       <c r="N18" t="n">
-        <v>130</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3465</v>
+      </c>
       <c r="P18" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3210</v>
+      </c>
       <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1330</v>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>1551</v>
+        <v>2780</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>44</v>
       </c>
       <c r="AA18" t="n">
-        <v>2831</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+        <v>2825</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34.3257224402426</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>35.0792507204611</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>31.16352201257862</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29.02173913043478</v>
+      </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
@@ -2508,58 +2460,58 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ZCTA5 02859</t>
+          <t>ZCTA5 02827</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>3104</v>
+        <v>1075</v>
       </c>
       <c r="F19" t="n">
-        <v>519</v>
+        <v>114</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>324</v>
+        <v>143</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>2925</v>
+        <v>1063</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>2859</v>
+        <v>2827</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
@@ -2580,99 +2532,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ZCTA5 02860</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>474830</v>
-      </c>
+          <t>ZCTA5 02857</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>19978</v>
+        <v>5363</v>
       </c>
       <c r="F20" t="n">
-        <v>2822</v>
-      </c>
-      <c r="G20" t="n">
-        <v>75920</v>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>2021</v>
-      </c>
-      <c r="I20" t="n">
-        <v>40530</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>1840</v>
-      </c>
-      <c r="K20" t="n">
-        <v>35760</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1172</v>
-      </c>
-      <c r="M20" t="n">
-        <v>26270</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>1152</v>
-      </c>
-      <c r="O20" t="n">
-        <v>26645</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>433</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>10355</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>318</v>
-      </c>
-      <c r="S20" t="n">
-        <v>7330</v>
-      </c>
-      <c r="T20" t="n">
-        <v>400300</v>
-      </c>
-      <c r="U20" t="n">
-        <v>56905</v>
-      </c>
-      <c r="V20" t="n">
-        <v>7180</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>17832</v>
+        <v>5228</v>
       </c>
       <c r="X20" t="n">
-        <v>1049</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="n">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="n">
         <v>44</v>
       </c>
       <c r="AA20" t="n">
-        <v>2860</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23.76764440884973</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>24.045013421433</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>20.59428950863214</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23.34384858044164</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22.44840735755944</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>54.24690181124881</v>
-      </c>
+        <v>2857</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
         <v>2015</v>
       </c>
@@ -2686,65 +2604,75 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ZCTA5 02916</t>
+          <t>ZCTA5 02881</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>4336</v>
+        <v>3045</v>
       </c>
       <c r="F21" t="n">
-        <v>585</v>
+        <v>279</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>928</v>
+        <v>226</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>595</v>
+        <v>254</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>429</v>
+        <v>276</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>178</v>
+        <v>251</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>58640</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3130</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2010</v>
+      </c>
       <c r="W21" t="n">
-        <v>4174</v>
+        <v>2198</v>
       </c>
       <c r="X21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>2916</v>
+        <v>2881</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>26.67879890809828</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>41.73333333333333</v>
+      </c>
       <c r="AH21" t="n">
         <v>2015</v>
       </c>
@@ -2758,87 +2686,63 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ZCTA5 02865</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>179575</v>
-      </c>
+          <t>ZCTA5 02898</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>7814</v>
+        <v>787</v>
       </c>
       <c r="F22" t="n">
-        <v>1228</v>
-      </c>
-      <c r="G22" t="n">
-        <v>30950</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>1099</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23515</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1372</v>
-      </c>
-      <c r="K22" t="n">
-        <v>29315</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>552</v>
-      </c>
-      <c r="M22" t="n">
-        <v>11255</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>504</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8745</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>129</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1580</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>166</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>7508</v>
+        <v>774</v>
       </c>
       <c r="X22" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
         <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>2865</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>22.9811876119785</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>23.40567253975076</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>21.08627858627858</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16.31121642969984</v>
-      </c>
+        <v>2898</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
@@ -2854,99 +2758,89 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ZCTA5 02871</t>
+          <t>ZCTA5 02907</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>171755</v>
+        <v>258825</v>
       </c>
       <c r="E23" t="n">
-        <v>7631</v>
+        <v>11186</v>
       </c>
       <c r="F23" t="n">
-        <v>801</v>
+        <v>1292</v>
       </c>
       <c r="G23" t="n">
-        <v>19395</v>
+        <v>26045</v>
       </c>
       <c r="H23" t="n">
-        <v>1116</v>
+        <v>902</v>
       </c>
       <c r="I23" t="n">
-        <v>20970</v>
+        <v>17515</v>
       </c>
       <c r="J23" t="n">
-        <v>1324</v>
+        <v>1387</v>
       </c>
       <c r="K23" t="n">
-        <v>26065</v>
+        <v>26240</v>
       </c>
       <c r="L23" t="n">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="M23" t="n">
-        <v>12320</v>
+        <v>12415</v>
       </c>
       <c r="N23" t="n">
-        <v>396</v>
+        <v>837</v>
       </c>
       <c r="O23" t="n">
-        <v>6670</v>
+        <v>16510</v>
       </c>
       <c r="P23" t="n">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="Q23" t="n">
-        <v>5265</v>
+        <v>4870</v>
       </c>
       <c r="R23" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="S23" t="n">
-        <v>3780</v>
-      </c>
-      <c r="T23" t="n">
-        <v>163060</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3735</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1320</v>
-      </c>
+        <v>1900</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>7159</v>
+        <v>9297</v>
       </c>
       <c r="X23" t="n">
-        <v>109</v>
+        <v>1103</v>
       </c>
       <c r="Y23" t="n">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="Z23" t="n">
         <v>44</v>
       </c>
       <c r="AA23" t="n">
-        <v>2871</v>
+        <v>2907</v>
       </c>
       <c r="AB23" t="n">
-        <v>22.50753505438344</v>
+        <v>23.13829787234043</v>
       </c>
       <c r="AC23" t="n">
-        <v>21.05633802816902</v>
+        <v>19.85414767547858</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.54429735234216</v>
+        <v>18.32859174964438</v>
       </c>
       <c r="AE23" t="n">
-        <v>17.02567760342368</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>22.77692415141779</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>34.26605504587156</v>
-      </c>
+        <v>17.38211382113821</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
         <v>2015</v>
       </c>
@@ -2960,99 +2854,65 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ZCTA5 02911</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>186625</v>
-      </c>
+          <t>ZCTA5 02804</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>7821</v>
+        <v>1387</v>
       </c>
       <c r="F24" t="n">
-        <v>1267</v>
-      </c>
-      <c r="G24" t="n">
-        <v>30855</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1004</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20030</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>1027</v>
-      </c>
-      <c r="K24" t="n">
-        <v>21550</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>677</v>
-      </c>
-      <c r="M24" t="n">
-        <v>14060</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>284</v>
-      </c>
-      <c r="O24" t="n">
-        <v>5230</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>233</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>6900</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>59</v>
-      </c>
-      <c r="S24" t="n">
-        <v>750</v>
-      </c>
-      <c r="T24" t="n">
-        <v>169420</v>
-      </c>
-      <c r="U24" t="n">
-        <v>14000</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>7351</v>
+        <v>1308</v>
       </c>
       <c r="X24" t="n">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="Y24" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>2911</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23.86203810254443</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>22.40642888595332</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>20.89788732394366</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>23.46228239845261</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>23.04720446197796</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>56.45161290322581</v>
-      </c>
+        <v>2804</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
         <v>2015</v>
       </c>
@@ -3066,86 +2926,86 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ZCTA5 02809</t>
+          <t>ZCTA5 02814</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253840</v>
+        <v>121960</v>
       </c>
       <c r="E25" t="n">
-        <v>10174</v>
+        <v>3756</v>
       </c>
       <c r="F25" t="n">
-        <v>1400</v>
+        <v>717</v>
       </c>
       <c r="G25" t="n">
-        <v>44770</v>
+        <v>23110</v>
       </c>
       <c r="H25" t="n">
-        <v>1349</v>
+        <v>380</v>
       </c>
       <c r="I25" t="n">
-        <v>34940</v>
+        <v>10635</v>
       </c>
       <c r="J25" t="n">
-        <v>1066</v>
+        <v>421</v>
       </c>
       <c r="K25" t="n">
-        <v>24745</v>
+        <v>10675</v>
       </c>
       <c r="L25" t="n">
-        <v>510</v>
+        <v>146</v>
       </c>
       <c r="M25" t="n">
-        <v>10135</v>
+        <v>4435</v>
       </c>
       <c r="N25" t="n">
-        <v>608</v>
+        <v>220</v>
       </c>
       <c r="O25" t="n">
-        <v>10720</v>
+        <v>3575</v>
       </c>
       <c r="P25" t="n">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="Q25" t="n">
-        <v>8090</v>
+        <v>3750</v>
       </c>
       <c r="R25" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3545</v>
+        <v>-666666666</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>9199</v>
+        <v>3690</v>
       </c>
       <c r="X25" t="n">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>44</v>
       </c>
       <c r="AA25" t="n">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="AB25" t="n">
-        <v>24.94987222331433</v>
+        <v>32.47071352502662</v>
       </c>
       <c r="AC25" t="n">
-        <v>28.99599854492543</v>
+        <v>30.76116681859617</v>
       </c>
       <c r="AD25" t="n">
-        <v>22.13197969543147</v>
+        <v>26.64902998236332</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.31548198636806</v>
+        <v>20.98853868194842</v>
       </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
@@ -3162,49 +3022,49 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ZCTA5 02830</t>
+          <t>ZCTA5 02817</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>2975</v>
+        <v>2777</v>
       </c>
       <c r="F26" t="n">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>2924</v>
+        <v>2723</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -3213,7 +3073,7 @@
         <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>2830</v>
+        <v>2817</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
@@ -3234,49 +3094,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ZCTA5 02839</t>
+          <t>ZCTA5 02822</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>782</v>
+        <v>3190</v>
       </c>
       <c r="F27" t="n">
-        <v>124</v>
+        <v>548</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>88</v>
+        <v>472</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>782</v>
+        <v>3115</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3285,7 +3145,7 @@
         <v>44</v>
       </c>
       <c r="AA27" t="n">
-        <v>2839</v>
+        <v>2822</v>
       </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
@@ -3306,49 +3166,49 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ZCTA5 02875</t>
+          <t>ZCTA5 02835</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>268</v>
+        <v>2518</v>
       </c>
       <c r="F28" t="n">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>268</v>
+        <v>2365</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3357,7 +3217,7 @@
         <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>2875</v>
+        <v>2835</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
@@ -3378,63 +3238,87 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ZCTA5 02807</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>ZCTA5 02813</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>95635</v>
+      </c>
       <c r="E29" t="n">
-        <v>331</v>
+        <v>3445</v>
       </c>
       <c r="F29" t="n">
-        <v>77</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>471</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17440</v>
+      </c>
       <c r="H29" t="n">
-        <v>57</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>461</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10260</v>
+      </c>
       <c r="J29" t="n">
-        <v>37</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>374</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8520</v>
+      </c>
       <c r="L29" t="n">
-        <v>10</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>107</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2080</v>
+      </c>
       <c r="N29" t="n">
-        <v>49</v>
-      </c>
-      <c r="O29" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6130</v>
+      </c>
       <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1855</v>
+      </c>
       <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="S29" t="n">
+        <v>970</v>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>286</v>
+        <v>3388</v>
       </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="n">
         <v>44</v>
       </c>
       <c r="AA29" t="n">
-        <v>2807</v>
-      </c>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+        <v>2813</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>27.76052249637156</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>29.72103004291845</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>22.03742203742204</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>24.19696969696969</v>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
@@ -3450,99 +3334,89 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZCTA5 02852</t>
+          <t>ZCTA5 02840</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>251520</v>
+        <v>239025</v>
       </c>
       <c r="E30" t="n">
-        <v>10813</v>
+        <v>11721</v>
       </c>
       <c r="F30" t="n">
-        <v>1350</v>
+        <v>1469</v>
       </c>
       <c r="G30" t="n">
-        <v>34195</v>
+        <v>39525</v>
       </c>
       <c r="H30" t="n">
-        <v>1776</v>
+        <v>1509</v>
       </c>
       <c r="I30" t="n">
-        <v>39950</v>
+        <v>31910</v>
       </c>
       <c r="J30" t="n">
-        <v>1631</v>
+        <v>1667</v>
       </c>
       <c r="K30" t="n">
-        <v>36820</v>
+        <v>28595</v>
       </c>
       <c r="L30" t="n">
-        <v>880</v>
+        <v>808</v>
       </c>
       <c r="M30" t="n">
-        <v>20855</v>
+        <v>11025</v>
       </c>
       <c r="N30" t="n">
-        <v>763</v>
+        <v>1249</v>
       </c>
       <c r="O30" t="n">
-        <v>13415</v>
+        <v>17550</v>
       </c>
       <c r="P30" t="n">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="Q30" t="n">
-        <v>5425</v>
+        <v>9365</v>
       </c>
       <c r="R30" t="n">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="S30" t="n">
-        <v>1885</v>
-      </c>
-      <c r="T30" t="n">
-        <v>240040</v>
-      </c>
-      <c r="U30" t="n">
-        <v>8275</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1355</v>
-      </c>
+        <v>2925</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>10409</v>
+        <v>9280</v>
       </c>
       <c r="X30" t="n">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="Y30" t="n">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="Z30" t="n">
         <v>44</v>
       </c>
       <c r="AA30" t="n">
-        <v>2852</v>
+        <v>2840</v>
       </c>
       <c r="AB30" t="n">
-        <v>23.26088966984185</v>
+        <v>20.3928845661633</v>
       </c>
       <c r="AC30" t="n">
-        <v>23.71880998080614</v>
+        <v>23.98757555406313</v>
       </c>
       <c r="AD30" t="n">
-        <v>22.9689366786141</v>
+        <v>16.00808080808081</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.12727272727273</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>23.06081275819003</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>41.79292929292929</v>
-      </c>
+        <v>15.90721040189125</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
         <v>2015</v>
       </c>
@@ -3556,98 +3430,76 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZCTA5 02879</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>231570</v>
-      </c>
+          <t>ZCTA5 02836</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>9340</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
-        <v>1597</v>
-      </c>
-      <c r="G31" t="n">
-        <v>43730</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1409</v>
-      </c>
-      <c r="I31" t="n">
-        <v>33160</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>1342</v>
-      </c>
-      <c r="K31" t="n">
-        <v>30060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>625</v>
-      </c>
-      <c r="M31" t="n">
-        <v>11420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>604</v>
-      </c>
-      <c r="O31" t="n">
-        <v>11110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>8300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>197</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>211950</v>
+        <v>1610</v>
       </c>
       <c r="U31" t="n">
-        <v>13240</v>
+        <v>-666666666</v>
       </c>
       <c r="V31" t="n">
-        <v>3890</v>
+        <v>-666666666</v>
       </c>
       <c r="W31" t="n">
-        <v>8779</v>
+        <v>76</v>
       </c>
       <c r="X31" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>44</v>
       </c>
       <c r="AA31" t="n">
-        <v>2879</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>24.79336188436831</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>25.57884231536926</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>21.08795119471276</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>22.86219081272085</v>
-      </c>
+        <v>2836</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>24.14284087025857</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>83.27044025157232</v>
+        <v>21.18421052631579</v>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="AH31" t="n">
         <v>2015</v>
@@ -3662,99 +3514,89 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ZCTA5 02886</t>
+          <t>ZCTA5 02837</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>315170</v>
+        <v>43540</v>
       </c>
       <c r="E32" t="n">
-        <v>13606</v>
+        <v>1477</v>
       </c>
       <c r="F32" t="n">
-        <v>1819</v>
+        <v>288</v>
       </c>
       <c r="G32" t="n">
-        <v>48650</v>
+        <v>7015</v>
       </c>
       <c r="H32" t="n">
-        <v>2085</v>
+        <v>164</v>
       </c>
       <c r="I32" t="n">
-        <v>46630</v>
+        <v>4045</v>
       </c>
       <c r="J32" t="n">
-        <v>1954</v>
+        <v>210</v>
       </c>
       <c r="K32" t="n">
-        <v>39040</v>
+        <v>5615</v>
       </c>
       <c r="L32" t="n">
-        <v>1134</v>
+        <v>66</v>
       </c>
       <c r="M32" t="n">
-        <v>22775</v>
+        <v>2115</v>
       </c>
       <c r="N32" t="n">
-        <v>1162</v>
+        <v>105</v>
       </c>
       <c r="O32" t="n">
-        <v>27675</v>
+        <v>1380</v>
       </c>
       <c r="P32" t="n">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2270</v>
+        <v>820</v>
       </c>
       <c r="R32" t="n">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="S32" t="n">
-        <v>2765</v>
-      </c>
-      <c r="T32" t="n">
-        <v>297905</v>
-      </c>
-      <c r="U32" t="n">
-        <v>13130</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2940</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>13093</v>
+        <v>1358</v>
       </c>
       <c r="X32" t="n">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>44</v>
       </c>
       <c r="AA32" t="n">
-        <v>2886</v>
+        <v>2837</v>
       </c>
       <c r="AB32" t="n">
-        <v>23.16404527414376</v>
+        <v>29.47867298578199</v>
       </c>
       <c r="AC32" t="n">
-        <v>24.40573770491803</v>
+        <v>24.46902654867257</v>
       </c>
       <c r="AD32" t="n">
-        <v>20.01781088082901</v>
+        <v>28.0072463768116</v>
       </c>
       <c r="AE32" t="n">
-        <v>22.75455927051672</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>22.752997785076</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>60.22935779816514</v>
-      </c>
+        <v>13.66459627329192</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
         <v>2015</v>
       </c>
@@ -3768,87 +3610,63 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ZCTA5 02889</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>361265</v>
-      </c>
+          <t>ZCTA5 02858</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>14011</v>
+        <v>421</v>
       </c>
       <c r="F33" t="n">
-        <v>2123</v>
-      </c>
-      <c r="G33" t="n">
-        <v>54285</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>1709</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46880</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>1374</v>
-      </c>
-      <c r="K33" t="n">
-        <v>32780</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>785</v>
-      </c>
-      <c r="M33" t="n">
-        <v>14585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>790</v>
-      </c>
-      <c r="O33" t="n">
-        <v>17425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>412</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>10245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>118</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>13750</v>
+        <v>421</v>
       </c>
       <c r="X33" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>44</v>
       </c>
       <c r="AA33" t="n">
-        <v>2889</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>25.78438369852259</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>26.40005219206681</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21.93839740620658</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>23.01996672212978</v>
-      </c>
+        <v>2858</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
@@ -3864,63 +3682,87 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ZCTA5 02874</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>ZCTA5 02882</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>181710</v>
+      </c>
       <c r="E34" t="n">
-        <v>3200</v>
+        <v>6843</v>
       </c>
       <c r="F34" t="n">
-        <v>663</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>827</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23725</v>
+      </c>
       <c r="H34" t="n">
-        <v>476</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="I34" t="n">
+        <v>19410</v>
+      </c>
       <c r="J34" t="n">
-        <v>453</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>1231</v>
+      </c>
+      <c r="K34" t="n">
+        <v>29210</v>
+      </c>
       <c r="L34" t="n">
-        <v>239</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>519</v>
+      </c>
+      <c r="M34" t="n">
+        <v>12955</v>
+      </c>
       <c r="N34" t="n">
-        <v>246</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
+        <v>538</v>
+      </c>
+      <c r="O34" t="n">
+        <v>10810</v>
+      </c>
       <c r="P34" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+        <v>307</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6960</v>
+      </c>
       <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2975</v>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>3076</v>
+        <v>6575</v>
       </c>
       <c r="X34" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Z34" t="n">
         <v>44</v>
       </c>
       <c r="AA34" t="n">
-        <v>2874</v>
-      </c>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
+        <v>2882</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26.55414291977203</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>28.47194719471948</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>24.09428571428571</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21.02958579881657</v>
+      </c>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
@@ -3936,86 +3778,86 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ZCTA5 02885</t>
+          <t>ZCTA5 02891</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>130330</v>
+        <v>219435</v>
       </c>
       <c r="E35" t="n">
-        <v>5293</v>
+        <v>10024</v>
       </c>
       <c r="F35" t="n">
-        <v>964</v>
+        <v>1270</v>
       </c>
       <c r="G35" t="n">
-        <v>26215</v>
+        <v>31920</v>
       </c>
       <c r="H35" t="n">
-        <v>601</v>
+        <v>1078</v>
       </c>
       <c r="I35" t="n">
-        <v>12990</v>
+        <v>21420</v>
       </c>
       <c r="J35" t="n">
-        <v>433</v>
+        <v>1348</v>
       </c>
       <c r="K35" t="n">
-        <v>11220</v>
+        <v>22395</v>
       </c>
       <c r="L35" t="n">
-        <v>316</v>
+        <v>893</v>
       </c>
       <c r="M35" t="n">
-        <v>5175</v>
+        <v>17220</v>
       </c>
       <c r="N35" t="n">
-        <v>269</v>
+        <v>617</v>
       </c>
       <c r="O35" t="n">
-        <v>5595</v>
+        <v>10170</v>
       </c>
       <c r="P35" t="n">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="Q35" t="n">
-        <v>3560</v>
+        <v>4805</v>
       </c>
       <c r="R35" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="S35" t="n">
-        <v>3620</v>
+        <v>2250</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>4858</v>
+        <v>9593</v>
       </c>
       <c r="X35" t="n">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>44</v>
       </c>
       <c r="AA35" t="n">
-        <v>2885</v>
+        <v>2891</v>
       </c>
       <c r="AB35" t="n">
-        <v>24.62308709616475</v>
+        <v>21.89096169193935</v>
       </c>
       <c r="AC35" t="n">
-        <v>25.05111821086262</v>
+        <v>22.71720613287905</v>
       </c>
       <c r="AD35" t="n">
-        <v>21.88918558077437</v>
+        <v>17.67737617135208</v>
       </c>
       <c r="AE35" t="n">
-        <v>20.94965675057208</v>
+        <v>17.33217592592593</v>
       </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
@@ -4032,99 +3874,89 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ZCTA5 02888</t>
+          <t>ZCTA5 02842</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>232805</v>
+        <v>139405</v>
       </c>
       <c r="E36" t="n">
-        <v>10427</v>
+        <v>7671</v>
       </c>
       <c r="F36" t="n">
-        <v>1304</v>
+        <v>1007</v>
       </c>
       <c r="G36" t="n">
-        <v>31495</v>
+        <v>16815</v>
       </c>
       <c r="H36" t="n">
-        <v>1351</v>
+        <v>734</v>
       </c>
       <c r="I36" t="n">
-        <v>26830</v>
+        <v>9380</v>
       </c>
       <c r="J36" t="n">
-        <v>1526</v>
+        <v>1074</v>
       </c>
       <c r="K36" t="n">
-        <v>34695</v>
+        <v>16310</v>
       </c>
       <c r="L36" t="n">
-        <v>736</v>
+        <v>591</v>
       </c>
       <c r="M36" t="n">
-        <v>14610</v>
+        <v>8970</v>
       </c>
       <c r="N36" t="n">
-        <v>376</v>
+        <v>720</v>
       </c>
       <c r="O36" t="n">
-        <v>9025</v>
+        <v>12010</v>
       </c>
       <c r="P36" t="n">
-        <v>393</v>
+        <v>215</v>
       </c>
       <c r="Q36" t="n">
-        <v>7935</v>
+        <v>2645</v>
       </c>
       <c r="R36" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S36" t="n">
-        <v>1590</v>
-      </c>
-      <c r="T36" t="n">
-        <v>226750</v>
-      </c>
-      <c r="U36" t="n">
-        <v>4700</v>
-      </c>
-      <c r="V36" t="n">
-        <v>865</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>10235</v>
+        <v>7194</v>
       </c>
       <c r="X36" t="n">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="Y36" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="Z36" t="n">
         <v>44</v>
       </c>
       <c r="AA36" t="n">
-        <v>2888</v>
+        <v>2842</v>
       </c>
       <c r="AB36" t="n">
-        <v>22.32713148556632</v>
+        <v>18.17298918002868</v>
       </c>
       <c r="AC36" t="n">
-        <v>21.96798493408663</v>
+        <v>15.04595060310167</v>
       </c>
       <c r="AD36" t="n">
-        <v>21.79708222811671</v>
+        <v>15.18318318318318</v>
       </c>
       <c r="AE36" t="n">
-        <v>22.05461638491548</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>22.15437225207621</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>59.49367088607595</v>
-      </c>
+        <v>15.67379679144385</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
         <v>2015</v>
       </c>
@@ -4138,65 +3970,99 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ZCTA5 02894</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>ZCTA5 02861</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>291160</v>
+      </c>
       <c r="E37" t="n">
-        <v>471</v>
+        <v>12444</v>
       </c>
       <c r="F37" t="n">
-        <v>81</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>1412</v>
+      </c>
+      <c r="G37" t="n">
+        <v>34125</v>
+      </c>
       <c r="H37" t="n">
-        <v>12</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1968</v>
+      </c>
+      <c r="I37" t="n">
+        <v>41330</v>
+      </c>
       <c r="J37" t="n">
-        <v>13</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>1250</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29175</v>
+      </c>
       <c r="L37" t="n">
-        <v>82</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>557</v>
+      </c>
+      <c r="M37" t="n">
+        <v>10900</v>
+      </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
+        <v>563</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11460</v>
+      </c>
       <c r="P37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4850</v>
+      </c>
       <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+        <v>122</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1740</v>
+      </c>
+      <c r="T37" t="n">
+        <v>271630</v>
+      </c>
+      <c r="U37" t="n">
+        <v>11760</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2025</v>
+      </c>
       <c r="W37" t="n">
-        <v>471</v>
+        <v>11792</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z37" t="n">
         <v>44</v>
       </c>
       <c r="AA37" t="n">
-        <v>2894</v>
-      </c>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+        <v>2861</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>23.39762134361942</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>22.32396449704142</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>22.17764250138351</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>20.08620689655172</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>23.03510854816825</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>46.2992125984252</v>
+      </c>
       <c r="AH37" t="n">
         <v>2015</v>
       </c>
@@ -4210,98 +4076,98 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ZCTA5 02903</t>
+          <t>ZCTA5 02906</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>100630</v>
+        <v>292210</v>
       </c>
       <c r="E38" t="n">
-        <v>4978</v>
+        <v>14026</v>
       </c>
       <c r="F38" t="n">
-        <v>314</v>
+        <v>1321</v>
       </c>
       <c r="G38" t="n">
-        <v>9760</v>
+        <v>29330</v>
       </c>
       <c r="H38" t="n">
-        <v>441</v>
+        <v>1547</v>
       </c>
       <c r="I38" t="n">
-        <v>7065</v>
+        <v>38160</v>
       </c>
       <c r="J38" t="n">
-        <v>673</v>
+        <v>2648</v>
       </c>
       <c r="K38" t="n">
-        <v>11155</v>
+        <v>55775</v>
       </c>
       <c r="L38" t="n">
-        <v>520</v>
+        <v>1508</v>
       </c>
       <c r="M38" t="n">
-        <v>7020</v>
+        <v>28890</v>
       </c>
       <c r="N38" t="n">
-        <v>516</v>
+        <v>2325</v>
       </c>
       <c r="O38" t="n">
-        <v>6740</v>
+        <v>41545</v>
       </c>
       <c r="P38" t="n">
-        <v>214</v>
+        <v>726</v>
       </c>
       <c r="Q38" t="n">
-        <v>2815</v>
+        <v>10675</v>
       </c>
       <c r="R38" t="n">
-        <v>221</v>
+        <v>288</v>
       </c>
       <c r="S38" t="n">
-        <v>2590</v>
+        <v>4240</v>
       </c>
       <c r="T38" t="n">
-        <v>49550</v>
+        <v>192120</v>
       </c>
       <c r="U38" t="n">
-        <v>19270</v>
+        <v>54480</v>
       </c>
       <c r="V38" t="n">
-        <v>13255</v>
+        <v>8115</v>
       </c>
       <c r="W38" t="n">
-        <v>2439</v>
+        <v>9258</v>
       </c>
       <c r="X38" t="n">
-        <v>432</v>
+        <v>1112</v>
       </c>
       <c r="Y38" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="Z38" t="n">
         <v>44</v>
       </c>
       <c r="AA38" t="n">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="AB38" t="n">
-        <v>20.21494576134994</v>
+        <v>20.83345216027378</v>
       </c>
       <c r="AC38" t="n">
-        <v>22.28476821192053</v>
+        <v>23.53207810320781</v>
       </c>
       <c r="AD38" t="n">
-        <v>15.2347024308466</v>
+        <v>20.37175168431184</v>
       </c>
       <c r="AE38" t="n">
-        <v>13.08904109589041</v>
+        <v>17.11569977056703</v>
       </c>
       <c r="AF38" t="n">
-        <v>20.31570315703157</v>
+        <v>20.75178224238497</v>
       </c>
       <c r="AG38" t="n">
-        <v>44.60648148148148</v>
+        <v>48.99280575539569</v>
       </c>
       <c r="AH38" t="n">
         <v>2015</v>
@@ -4316,89 +4182,99 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZCTA5 02908</t>
+          <t>ZCTA5 02905</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>364580</v>
+        <v>221250</v>
       </c>
       <c r="E39" t="n">
-        <v>16264</v>
+        <v>10067</v>
       </c>
       <c r="F39" t="n">
-        <v>1772</v>
+        <v>1251</v>
       </c>
       <c r="G39" t="n">
-        <v>47960</v>
+        <v>33995</v>
       </c>
       <c r="H39" t="n">
-        <v>1556</v>
+        <v>1391</v>
       </c>
       <c r="I39" t="n">
-        <v>31750</v>
+        <v>26855</v>
       </c>
       <c r="J39" t="n">
-        <v>2162</v>
+        <v>1130</v>
       </c>
       <c r="K39" t="n">
-        <v>43450</v>
+        <v>17895</v>
       </c>
       <c r="L39" t="n">
-        <v>910</v>
+        <v>644</v>
       </c>
       <c r="M39" t="n">
-        <v>16440</v>
+        <v>10090</v>
       </c>
       <c r="N39" t="n">
-        <v>1290</v>
+        <v>801</v>
       </c>
       <c r="O39" t="n">
-        <v>22555</v>
+        <v>13485</v>
       </c>
       <c r="P39" t="n">
-        <v>883</v>
+        <v>462</v>
       </c>
       <c r="Q39" t="n">
-        <v>15045</v>
+        <v>8495</v>
       </c>
       <c r="R39" t="n">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="S39" t="n">
-        <v>5380</v>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+        <v>1530</v>
+      </c>
+      <c r="T39" t="n">
+        <v>168010</v>
+      </c>
+      <c r="U39" t="n">
+        <v>40535</v>
+      </c>
+      <c r="V39" t="n">
+        <v>7720</v>
+      </c>
       <c r="W39" t="n">
-        <v>13796</v>
+        <v>8095</v>
       </c>
       <c r="X39" t="n">
-        <v>1043</v>
+        <v>996</v>
       </c>
       <c r="Y39" t="n">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="Z39" t="n">
         <v>44</v>
       </c>
       <c r="AA39" t="n">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="AB39" t="n">
-        <v>22.41637973438269</v>
+        <v>21.97774908115625</v>
       </c>
       <c r="AC39" t="n">
-        <v>23.95132211538462</v>
+        <v>23.03179409538228</v>
       </c>
       <c r="AD39" t="n">
-        <v>19.49544270833333</v>
+        <v>15.77508455467869</v>
       </c>
       <c r="AE39" t="n">
-        <v>17.30326737229636</v>
-      </c>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+        <v>17.40300870942201</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>20.75478690549722</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>40.69779116465863</v>
+      </c>
       <c r="AH39" t="n">
         <v>2015</v>
       </c>
@@ -4412,89 +4288,99 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ZCTA5 02920</t>
+          <t>ZCTA5 02806</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>341890</v>
+        <v>197545</v>
       </c>
       <c r="E40" t="n">
-        <v>15538</v>
+        <v>7375</v>
       </c>
       <c r="F40" t="n">
-        <v>2478</v>
+        <v>1362</v>
       </c>
       <c r="G40" t="n">
-        <v>61350</v>
+        <v>35725</v>
       </c>
       <c r="H40" t="n">
-        <v>1938</v>
+        <v>1258</v>
       </c>
       <c r="I40" t="n">
-        <v>41145</v>
+        <v>36590</v>
       </c>
       <c r="J40" t="n">
-        <v>2248</v>
+        <v>1238</v>
       </c>
       <c r="K40" t="n">
-        <v>49610</v>
+        <v>31505</v>
       </c>
       <c r="L40" t="n">
-        <v>1062</v>
+        <v>709</v>
       </c>
       <c r="M40" t="n">
-        <v>16400</v>
+        <v>14845</v>
       </c>
       <c r="N40" t="n">
-        <v>1067</v>
+        <v>585</v>
       </c>
       <c r="O40" t="n">
-        <v>16560</v>
+        <v>12780</v>
       </c>
       <c r="P40" t="n">
-        <v>577</v>
+        <v>206</v>
       </c>
       <c r="Q40" t="n">
-        <v>10970</v>
+        <v>3810</v>
       </c>
       <c r="R40" t="n">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="S40" t="n">
-        <v>3760</v>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+        <v>1140</v>
+      </c>
+      <c r="T40" t="n">
+        <v>182755</v>
+      </c>
+      <c r="U40" t="n">
+        <v>13440</v>
+      </c>
+      <c r="V40" t="n">
+        <v>780</v>
+      </c>
       <c r="W40" t="n">
-        <v>14900</v>
+        <v>7005</v>
       </c>
       <c r="X40" t="n">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="Y40" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
         <v>44</v>
       </c>
       <c r="AA40" t="n">
-        <v>2920</v>
+        <v>2806</v>
       </c>
       <c r="AB40" t="n">
-        <v>22.003475350753</v>
+        <v>26.78576271186441</v>
       </c>
       <c r="AC40" t="n">
-        <v>23.20991847826087</v>
+        <v>27.60114503816794</v>
       </c>
       <c r="AD40" t="n">
-        <v>19.94259818731118</v>
+        <v>23.80585516178737</v>
       </c>
       <c r="AE40" t="n">
-        <v>16.74574209245742</v>
-      </c>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
+        <v>20.97345132743363</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>26.08922198429693</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>59.73333333333333</v>
+      </c>
       <c r="AH40" t="n">
         <v>2015</v>
       </c>
@@ -4508,63 +4394,87 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ZCTA5 02833</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>ZCTA5 02816</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>440305</v>
+      </c>
       <c r="E41" t="n">
-        <v>300</v>
+        <v>16365</v>
       </c>
       <c r="F41" t="n">
-        <v>81</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>2577</v>
+      </c>
+      <c r="G41" t="n">
+        <v>68480</v>
+      </c>
       <c r="H41" t="n">
-        <v>53</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>2235</v>
+      </c>
+      <c r="I41" t="n">
+        <v>60605</v>
+      </c>
       <c r="J41" t="n">
-        <v>37</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>1619</v>
+      </c>
+      <c r="K41" t="n">
+        <v>39770</v>
+      </c>
       <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>696</v>
+      </c>
+      <c r="M41" t="n">
+        <v>17380</v>
+      </c>
       <c r="N41" t="n">
-        <v>16</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>1027</v>
+      </c>
+      <c r="O41" t="n">
+        <v>21420</v>
+      </c>
       <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>11960</v>
+      </c>
       <c r="R41" t="n">
-        <v>21</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
+        <v>224</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5200</v>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="n">
-        <v>288</v>
+        <v>16172</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
         <v>44</v>
       </c>
       <c r="AA41" t="n">
-        <v>2833</v>
-      </c>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+        <v>2816</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>26.90528567063856</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>26.8256442227764</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>24.68682505399568</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>24.83630952380953</v>
+      </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
@@ -4580,87 +4490,63 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ZCTA5 02863</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>222930</v>
-      </c>
+          <t>ZCTA5 02828</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>7734</v>
+        <v>3577</v>
       </c>
       <c r="F42" t="n">
-        <v>876</v>
-      </c>
-      <c r="G42" t="n">
-        <v>20410</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>354</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6905</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>489</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14165</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>107</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4545</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>276</v>
-      </c>
-      <c r="O42" t="n">
-        <v>7025</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>380</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>8455</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>155</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4910</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>6615</v>
+        <v>3506</v>
       </c>
       <c r="X42" t="n">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="Y42" t="n">
-        <v>267</v>
+        <v>8</v>
       </c>
       <c r="Z42" t="n">
         <v>44</v>
       </c>
       <c r="AA42" t="n">
-        <v>2863</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>28.82467028704422</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>22.20731707317073</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>31.39261744966443</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>23.59756097560976</v>
-      </c>
+        <v>2828</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
@@ -4676,98 +4562,76 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ZCTA5 02896</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>154620</v>
-      </c>
+          <t>ZCTA5 02832</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>5801</v>
+        <v>2580</v>
       </c>
       <c r="F43" t="n">
-        <v>1037</v>
-      </c>
-      <c r="G43" t="n">
-        <v>28425</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>521</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12095</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>742</v>
-      </c>
-      <c r="K43" t="n">
-        <v>18900</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>402</v>
-      </c>
-      <c r="M43" t="n">
-        <v>7370</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>401</v>
-      </c>
-      <c r="O43" t="n">
-        <v>9995</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>117</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2250</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>27</v>
-      </c>
-      <c r="S43" t="n">
-        <v>630</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>150375</v>
+        <v>86075</v>
       </c>
       <c r="U43" t="n">
-        <v>2235</v>
+        <v>-666666666</v>
       </c>
       <c r="V43" t="n">
-        <v>1655</v>
+        <v>-666666666</v>
       </c>
       <c r="W43" t="n">
-        <v>5669</v>
+        <v>2580</v>
       </c>
       <c r="X43" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>44</v>
       </c>
       <c r="AA43" t="n">
-        <v>2896</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>26.65402516807447</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>26.00770218228498</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>22.96328671328672</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>23.63899613899613</v>
-      </c>
+        <v>2832</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>26.52584230022932</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>67.72727272727273</v>
+        <v>33.3624031007752</v>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
       <c r="AH43" t="n">
         <v>2015</v>
@@ -4782,87 +4646,63 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ZCTA5 02904</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>275965</v>
-      </c>
+          <t>ZCTA5 02838</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>13052</v>
+        <v>1922</v>
       </c>
       <c r="F44" t="n">
-        <v>1545</v>
-      </c>
-      <c r="G44" t="n">
-        <v>30370</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1800</v>
-      </c>
-      <c r="I44" t="n">
-        <v>34670</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>1794</v>
-      </c>
-      <c r="K44" t="n">
-        <v>31160</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>798</v>
-      </c>
-      <c r="M44" t="n">
-        <v>13120</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>821</v>
-      </c>
-      <c r="O44" t="n">
-        <v>12655</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>6485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>276</v>
-      </c>
-      <c r="S44" t="n">
-        <v>8090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="n">
-        <v>12109</v>
+        <v>1906</v>
       </c>
       <c r="X44" t="n">
-        <v>434</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
         <v>44</v>
       </c>
       <c r="AA44" t="n">
-        <v>2904</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>21.1435029114312</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>19.44394618834081</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>17.08333333333333</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>16.84859154929578</v>
-      </c>
+        <v>2838</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
@@ -4878,86 +4718,86 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ZCTA5 02909</t>
+          <t>ZCTA5 02864</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>405340</v>
+        <v>465690</v>
       </c>
       <c r="E45" t="n">
-        <v>16513</v>
+        <v>17260</v>
       </c>
       <c r="F45" t="n">
-        <v>1676</v>
+        <v>2760</v>
       </c>
       <c r="G45" t="n">
-        <v>37025</v>
+        <v>87580</v>
       </c>
       <c r="H45" t="n">
-        <v>1377</v>
+        <v>2281</v>
       </c>
       <c r="I45" t="n">
-        <v>32500</v>
+        <v>52515</v>
       </c>
       <c r="J45" t="n">
-        <v>2611</v>
+        <v>2025</v>
       </c>
       <c r="K45" t="n">
-        <v>63555</v>
+        <v>48065</v>
       </c>
       <c r="L45" t="n">
-        <v>810</v>
+        <v>1274</v>
       </c>
       <c r="M45" t="n">
-        <v>17515</v>
+        <v>25680</v>
       </c>
       <c r="N45" t="n">
-        <v>1982</v>
+        <v>1190</v>
       </c>
       <c r="O45" t="n">
-        <v>41755</v>
+        <v>22520</v>
       </c>
       <c r="P45" t="n">
-        <v>844</v>
+        <v>360</v>
       </c>
       <c r="Q45" t="n">
-        <v>18165</v>
+        <v>6590</v>
       </c>
       <c r="R45" t="n">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="S45" t="n">
-        <v>6830</v>
+        <v>520</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="n">
-        <v>13101</v>
+        <v>16251</v>
       </c>
       <c r="X45" t="n">
-        <v>1779</v>
+        <v>505</v>
       </c>
       <c r="Y45" t="n">
-        <v>758</v>
+        <v>311</v>
       </c>
       <c r="Z45" t="n">
         <v>44</v>
       </c>
       <c r="AA45" t="n">
-        <v>2909</v>
+        <v>2864</v>
       </c>
       <c r="AB45" t="n">
-        <v>24.54672076545752</v>
+        <v>26.98088064889919</v>
       </c>
       <c r="AC45" t="n">
-        <v>22.77268260727154</v>
+        <v>27.79111287442968</v>
       </c>
       <c r="AD45" t="n">
-        <v>23.69774919614148</v>
+        <v>22.35374355865414</v>
       </c>
       <c r="AE45" t="n">
-        <v>21.20311394196744</v>
+        <v>18.78064516129032</v>
       </c>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
@@ -4974,86 +4814,86 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ZCTA5 02917</t>
+          <t>ZCTA5 02878</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>142535</v>
+        <v>216995</v>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>7835</v>
       </c>
       <c r="F46" t="n">
-        <v>1161</v>
+        <v>1275</v>
       </c>
       <c r="G46" t="n">
-        <v>25340</v>
+        <v>36015</v>
       </c>
       <c r="H46" t="n">
-        <v>986</v>
+        <v>1165</v>
       </c>
       <c r="I46" t="n">
-        <v>18525</v>
+        <v>27775</v>
       </c>
       <c r="J46" t="n">
-        <v>896</v>
+        <v>939</v>
       </c>
       <c r="K46" t="n">
-        <v>20835</v>
+        <v>20235</v>
       </c>
       <c r="L46" t="n">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="M46" t="n">
-        <v>8385</v>
+        <v>7710</v>
       </c>
       <c r="N46" t="n">
-        <v>401</v>
+        <v>578</v>
       </c>
       <c r="O46" t="n">
-        <v>7570</v>
+        <v>15055</v>
       </c>
       <c r="P46" t="n">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="Q46" t="n">
-        <v>880</v>
+        <v>3445</v>
       </c>
       <c r="R46" t="n">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="S46" t="n">
-        <v>2290</v>
+        <v>2330</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="n">
-        <v>5728</v>
+        <v>7702</v>
       </c>
       <c r="X46" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="Y46" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="n">
         <v>44</v>
       </c>
       <c r="AA46" t="n">
-        <v>2917</v>
+        <v>2878</v>
       </c>
       <c r="AB46" t="n">
-        <v>22.13276397515528</v>
+        <v>27.69559668155712</v>
       </c>
       <c r="AC46" t="n">
-        <v>20.43083372147182</v>
+        <v>26.14344262295082</v>
       </c>
       <c r="AD46" t="n">
-        <v>21.8548990276739</v>
+        <v>21.84910086004691</v>
       </c>
       <c r="AE46" t="n">
-        <v>17.53112033195021</v>
+        <v>24.76572958500669</v>
       </c>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
@@ -5070,77 +4910,65 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ZCTA5 02802</t>
+          <t>ZCTA5 02892</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>554</v>
+        <v>2257</v>
       </c>
       <c r="F47" t="n">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>13150</v>
-      </c>
-      <c r="U47" t="n">
-        <v>-666666666</v>
-      </c>
-      <c r="V47" t="n">
-        <v>-666666666</v>
-      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>554</v>
+        <v>2216</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z47" t="n">
         <v>44</v>
       </c>
       <c r="AA47" t="n">
-        <v>2802</v>
+        <v>2892</v>
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="n">
-        <v>23.73646209386282</v>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="n">
         <v>2015</v>
       </c>
@@ -5154,63 +4982,87 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ZCTA5 02826</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>ZCTA5 02893</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>331840</v>
+      </c>
       <c r="E48" t="n">
-        <v>301</v>
+        <v>14587</v>
       </c>
       <c r="F48" t="n">
-        <v>130</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>1602</v>
+      </c>
+      <c r="G48" t="n">
+        <v>41970</v>
+      </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>2015</v>
+      </c>
+      <c r="I48" t="n">
+        <v>38965</v>
+      </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>1920</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41025</v>
+      </c>
       <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>764</v>
+      </c>
+      <c r="M48" t="n">
+        <v>11795</v>
+      </c>
       <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
+        <v>737</v>
+      </c>
+      <c r="O48" t="n">
+        <v>20560</v>
+      </c>
       <c r="P48" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+        <v>329</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>6875</v>
+      </c>
       <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4495</v>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="n">
-        <v>301</v>
+        <v>14034</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z48" t="n">
         <v>44</v>
       </c>
       <c r="AA48" t="n">
-        <v>2826</v>
-      </c>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+        <v>2893</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>22.74902310276273</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>22.37627868399226</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>19.6795827123696</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>25.73639774859287</v>
+      </c>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="n">
@@ -5226,74 +5078,98 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ZCTA5 02841</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>ZCTA5 02895</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>444430</v>
+      </c>
       <c r="E49" t="n">
-        <v>709</v>
+        <v>17075</v>
       </c>
       <c r="F49" t="n">
-        <v>157</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>1938</v>
+      </c>
+      <c r="G49" t="n">
+        <v>49725</v>
+      </c>
       <c r="H49" t="n">
-        <v>51</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1624</v>
+      </c>
+      <c r="I49" t="n">
+        <v>36995</v>
+      </c>
       <c r="J49" t="n">
-        <v>52</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>1426</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27920</v>
+      </c>
       <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>637</v>
+      </c>
+      <c r="M49" t="n">
+        <v>11855</v>
+      </c>
       <c r="N49" t="n">
-        <v>5</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
+        <v>943</v>
+      </c>
+      <c r="O49" t="n">
+        <v>20630</v>
+      </c>
       <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+        <v>565</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>10965</v>
+      </c>
       <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
+        <v>272</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6900</v>
+      </c>
       <c r="T49" t="n">
-        <v>5885</v>
+        <v>397350</v>
       </c>
       <c r="U49" t="n">
-        <v>520</v>
+        <v>14675</v>
       </c>
       <c r="V49" t="n">
-        <v>470</v>
+        <v>16545</v>
       </c>
       <c r="W49" t="n">
-        <v>274</v>
+        <v>15306</v>
       </c>
       <c r="X49" t="n">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="Y49" t="n">
-        <v>81</v>
+        <v>841</v>
       </c>
       <c r="Z49" t="n">
         <v>44</v>
       </c>
       <c r="AA49" t="n">
-        <v>2841</v>
-      </c>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
+        <v>2895</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>26.02811127379209</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>24.34587310499719</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>19.28017450315075</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>20.95159151193634</v>
+      </c>
       <c r="AF49" t="n">
-        <v>21.47810218978102</v>
+        <v>25.96040768326147</v>
       </c>
       <c r="AG49" t="n">
-        <v>40</v>
+        <v>57.1011673151751</v>
       </c>
       <c r="AH49" t="n">
         <v>2015</v>
@@ -5308,49 +5184,71 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ZCTA5 02872</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>ZCTA5 02910</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>217265</v>
+      </c>
       <c r="E50" t="n">
-        <v>104</v>
+        <v>10106</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>1552</v>
+      </c>
+      <c r="G50" t="n">
+        <v>37755</v>
+      </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1401</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31865</v>
+      </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>1326</v>
+      </c>
+      <c r="K50" t="n">
+        <v>24700</v>
+      </c>
       <c r="L50" t="n">
-        <v>52</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="M50" t="n">
+        <v>8310</v>
+      </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
+        <v>824</v>
+      </c>
+      <c r="O50" t="n">
+        <v>12350</v>
+      </c>
       <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+        <v>344</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5170</v>
+      </c>
       <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+        <v>194</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2590</v>
+      </c>
+      <c r="T50" t="n">
+        <v>201245</v>
+      </c>
+      <c r="U50" t="n">
+        <v>12815</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-666666666</v>
+      </c>
       <c r="W50" t="n">
-        <v>93</v>
+        <v>9642</v>
       </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="Y50" t="n">
         <v>0</v>
@@ -5359,14 +5257,26 @@
         <v>44</v>
       </c>
       <c r="AA50" t="n">
-        <v>2872</v>
-      </c>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
+        <v>2910</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>21.49861468434593</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>23.57602438198442</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>17.83360345759049</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>20.87170711470649</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>50.45275590551181</v>
+      </c>
       <c r="AH50" t="n">
         <v>2015</v>
       </c>
@@ -5380,77 +5290,89 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ZCTA5 02873</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>ZCTA5 02914</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>206630</v>
+      </c>
       <c r="E51" t="n">
-        <v>176</v>
+        <v>9795</v>
       </c>
       <c r="F51" t="n">
-        <v>24</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>1118</v>
+      </c>
+      <c r="G51" t="n">
+        <v>29755</v>
+      </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1292</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22670</v>
+      </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>1339</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25185</v>
+      </c>
       <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>526</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9410</v>
+      </c>
       <c r="N51" t="n">
-        <v>22</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
+        <v>666</v>
+      </c>
+      <c r="O51" t="n">
+        <v>12015</v>
+      </c>
       <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+        <v>366</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5155</v>
+      </c>
       <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
-        <v>5045</v>
-      </c>
-      <c r="U51" t="n">
-        <v>-666666666</v>
-      </c>
-      <c r="V51" t="n">
-        <v>-666666666</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2170</v>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="n">
-        <v>176</v>
+        <v>9029</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Z51" t="n">
         <v>44</v>
       </c>
       <c r="AA51" t="n">
-        <v>2873</v>
-      </c>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="n">
-        <v>28.66477272727273</v>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+        <v>2914</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>21.09545686574783</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>21.75311203319502</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>18.54959785522788</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>16.63759689922481</v>
+      </c>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="n">
         <v>2015</v>
       </c>
@@ -5464,77 +5386,89 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ZCTA5 02876</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>ZCTA5 02915</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>176895</v>
+      </c>
       <c r="E52" t="n">
-        <v>202</v>
+        <v>7681</v>
       </c>
       <c r="F52" t="n">
-        <v>35</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>1317</v>
+      </c>
+      <c r="G52" t="n">
+        <v>31245</v>
+      </c>
       <c r="H52" t="n">
-        <v>64</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1135</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25595</v>
+      </c>
       <c r="J52" t="n">
-        <v>18</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>840</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16530</v>
+      </c>
       <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>688</v>
+      </c>
+      <c r="M52" t="n">
+        <v>14950</v>
+      </c>
       <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
+        <v>324</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6000</v>
+      </c>
       <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+        <v>224</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5245</v>
+      </c>
       <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>6200</v>
-      </c>
-      <c r="U52" t="n">
-        <v>-666666666</v>
-      </c>
-      <c r="V52" t="n">
-        <v>-666666666</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="S52" t="n">
+        <v>340</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="n">
-        <v>202</v>
+        <v>7463</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z52" t="n">
         <v>44</v>
       </c>
       <c r="AA52" t="n">
-        <v>2876</v>
-      </c>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="n">
-        <v>30.69306930693069</v>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+        <v>2915</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>23.03020440046869</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>23.1810766721044</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>20.6020942408377</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>20.52007299270073</v>
+      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
         <v>2015</v>
       </c>
@@ -5548,58 +5482,58 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ZCTA5 02912</t>
+          <t>ZCTA5 02921</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>506</v>
+        <v>6398</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>937</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>27</v>
+        <v>983</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>35</v>
+        <v>1178</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>13</v>
+        <v>434</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>20</v>
+        <v>530</v>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="n">
-        <v>106</v>
+        <v>6244</v>
       </c>
       <c r="X53" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="n">
         <v>44</v>
       </c>
       <c r="AA53" t="n">
-        <v>2912</v>
+        <v>2921</v>
       </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
@@ -5620,63 +5554,87 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ZCTA5 02808</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>ZCTA5 02919</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>326505</v>
+      </c>
       <c r="E54" t="n">
-        <v>1237</v>
+        <v>14843</v>
       </c>
       <c r="F54" t="n">
-        <v>101</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>2126</v>
+      </c>
+      <c r="G54" t="n">
+        <v>51390</v>
+      </c>
       <c r="H54" t="n">
-        <v>133</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>2044</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41975</v>
+      </c>
       <c r="J54" t="n">
-        <v>127</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>2142</v>
+      </c>
+      <c r="K54" t="n">
+        <v>40255</v>
+      </c>
       <c r="L54" t="n">
-        <v>91</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>1026</v>
+      </c>
+      <c r="M54" t="n">
+        <v>24790</v>
+      </c>
       <c r="N54" t="n">
-        <v>23</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
+        <v>1023</v>
+      </c>
+      <c r="O54" t="n">
+        <v>19135</v>
+      </c>
       <c r="P54" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q54" t="inlineStr"/>
+        <v>214</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>6015</v>
+      </c>
       <c r="R54" t="n">
-        <v>67</v>
-      </c>
-      <c r="S54" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2750</v>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="n">
-        <v>1237</v>
+        <v>14569</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Z54" t="n">
         <v>44</v>
       </c>
       <c r="AA54" t="n">
-        <v>2808</v>
-      </c>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
+        <v>2919</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>21.99723775517078</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>22.38968824940048</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>20.53188131313131</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>20.33144704931285</v>
+      </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
@@ -5692,35 +5650,35 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ZCTA5 02812</t>
+          <t>ZCTA5 02815</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>847</v>
+        <v>103</v>
       </c>
       <c r="F55" t="n">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
@@ -5731,19 +5689,19 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="n">
-        <v>814</v>
+        <v>103</v>
       </c>
       <c r="X55" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>44</v>
       </c>
       <c r="AA55" t="n">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
@@ -5764,99 +5722,65 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ZCTA5 02818</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>200100</v>
-      </c>
+          <t>ZCTA5 02831</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>8440</v>
+        <v>1580</v>
       </c>
       <c r="F56" t="n">
-        <v>1261</v>
-      </c>
-      <c r="G56" t="n">
-        <v>32790</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1377</v>
-      </c>
-      <c r="I56" t="n">
-        <v>35005</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>1149</v>
-      </c>
-      <c r="K56" t="n">
-        <v>23265</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>902</v>
-      </c>
-      <c r="M56" t="n">
-        <v>15800</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>552</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8850</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>348</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4940</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>93</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2305</v>
-      </c>
-      <c r="T56" t="n">
-        <v>182480</v>
-      </c>
-      <c r="U56" t="n">
-        <v>9835</v>
-      </c>
-      <c r="V56" t="n">
-        <v>6950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="n">
-        <v>8001</v>
+        <v>1551</v>
       </c>
       <c r="X56" t="n">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="Y56" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="Z56" t="n">
         <v>44</v>
       </c>
       <c r="AA56" t="n">
-        <v>2818</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>23.7085308056872</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>25.69939347990902</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>19.04680643588493</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>15.32222222222222</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>22.8071491063617</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>57.85294117647059</v>
-      </c>
+        <v>2831</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="n">
         <v>2015</v>
       </c>
@@ -5870,87 +5794,63 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ZCTA5 02825</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>96215</v>
-      </c>
+          <t>ZCTA5 02859</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>2803</v>
+        <v>3104</v>
       </c>
       <c r="F57" t="n">
-        <v>475</v>
-      </c>
-      <c r="G57" t="n">
-        <v>17940</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>219</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6405</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>371</v>
-      </c>
-      <c r="K57" t="n">
-        <v>12480</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>106</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2385</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>142</v>
-      </c>
-      <c r="O57" t="n">
-        <v>3465</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
-        <v>88</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3210</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>52</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1330</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
-        <v>2780</v>
+        <v>2925</v>
       </c>
       <c r="X57" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="n">
         <v>44</v>
       </c>
       <c r="AA57" t="n">
-        <v>2825</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>34.3257224402426</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>35.0792507204611</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>31.16352201257862</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>29.02173913043478</v>
-      </c>
+        <v>2859</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="n">
@@ -5966,65 +5866,99 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ZCTA5 02827</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>ZCTA5 02860</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>474830</v>
+      </c>
       <c r="E58" t="n">
-        <v>1075</v>
+        <v>19978</v>
       </c>
       <c r="F58" t="n">
-        <v>114</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>2822</v>
+      </c>
+      <c r="G58" t="n">
+        <v>75920</v>
+      </c>
       <c r="H58" t="n">
-        <v>143</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>2021</v>
+      </c>
+      <c r="I58" t="n">
+        <v>40530</v>
+      </c>
       <c r="J58" t="n">
-        <v>87</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>1840</v>
+      </c>
+      <c r="K58" t="n">
+        <v>35760</v>
+      </c>
       <c r="L58" t="n">
-        <v>60</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>1172</v>
+      </c>
+      <c r="M58" t="n">
+        <v>26270</v>
+      </c>
       <c r="N58" t="n">
-        <v>33</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
+        <v>1152</v>
+      </c>
+      <c r="O58" t="n">
+        <v>26645</v>
+      </c>
       <c r="P58" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+        <v>433</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>10355</v>
+      </c>
       <c r="R58" t="n">
-        <v>39</v>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7330</v>
+      </c>
+      <c r="T58" t="n">
+        <v>400300</v>
+      </c>
+      <c r="U58" t="n">
+        <v>56905</v>
+      </c>
+      <c r="V58" t="n">
+        <v>7180</v>
+      </c>
       <c r="W58" t="n">
-        <v>1063</v>
+        <v>17832</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="Y58" t="n">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="Z58" t="n">
         <v>44</v>
       </c>
       <c r="AA58" t="n">
-        <v>2827</v>
-      </c>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
+        <v>2860</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>23.76764440884973</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>24.045013421433</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>20.59428950863214</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>23.34384858044164</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>22.44840735755944</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>54.24690181124881</v>
+      </c>
       <c r="AH58" t="n">
         <v>2015</v>
       </c>
@@ -6038,58 +5972,58 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ZCTA5 02857</t>
+          <t>ZCTA5 02916</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>5363</v>
+        <v>4336</v>
       </c>
       <c r="F59" t="n">
-        <v>1111</v>
+        <v>585</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>613</v>
+        <v>928</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>901</v>
+        <v>595</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>347</v>
+        <v>178</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="n">
-        <v>5228</v>
+        <v>4174</v>
       </c>
       <c r="X59" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="Z59" t="n">
         <v>44</v>
       </c>
       <c r="AA59" t="n">
-        <v>2857</v>
+        <v>2916</v>
       </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
@@ -6110,75 +6044,89 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ZCTA5 02881</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>ZCTA5 02865</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>179575</v>
+      </c>
       <c r="E60" t="n">
-        <v>3045</v>
+        <v>7814</v>
       </c>
       <c r="F60" t="n">
-        <v>279</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>1228</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30950</v>
+      </c>
       <c r="H60" t="n">
-        <v>226</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1099</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23515</v>
+      </c>
       <c r="J60" t="n">
-        <v>254</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>1372</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29315</v>
+      </c>
       <c r="L60" t="n">
-        <v>276</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>552</v>
+      </c>
+      <c r="M60" t="n">
+        <v>11255</v>
+      </c>
       <c r="N60" t="n">
-        <v>251</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
+        <v>504</v>
+      </c>
+      <c r="O60" t="n">
+        <v>8745</v>
+      </c>
       <c r="P60" t="n">
-        <v>138</v>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1580</v>
+      </c>
       <c r="R60" t="n">
-        <v>58</v>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="n">
-        <v>58640</v>
-      </c>
-      <c r="U60" t="n">
-        <v>3130</v>
-      </c>
-      <c r="V60" t="n">
-        <v>2010</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4180</v>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="n">
-        <v>2198</v>
+        <v>7508</v>
       </c>
       <c r="X60" t="n">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="Y60" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="Z60" t="n">
         <v>44</v>
       </c>
       <c r="AA60" t="n">
-        <v>2881</v>
-      </c>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="n">
-        <v>26.67879890809828</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>41.73333333333333</v>
-      </c>
+        <v>2865</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>22.9811876119785</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>23.40567253975076</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>21.08627858627858</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>16.31121642969984</v>
+      </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="n">
         <v>2015</v>
       </c>
@@ -6192,65 +6140,99 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ZCTA5 02898</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>ZCTA5 02871</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>171755</v>
+      </c>
       <c r="E61" t="n">
-        <v>787</v>
+        <v>7631</v>
       </c>
       <c r="F61" t="n">
-        <v>228</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>801</v>
+      </c>
+      <c r="G61" t="n">
+        <v>19395</v>
+      </c>
       <c r="H61" t="n">
-        <v>80</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1116</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20970</v>
+      </c>
       <c r="J61" t="n">
-        <v>119</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>1324</v>
+      </c>
+      <c r="K61" t="n">
+        <v>26065</v>
+      </c>
       <c r="L61" t="n">
-        <v>57</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>640</v>
+      </c>
+      <c r="M61" t="n">
+        <v>12320</v>
+      </c>
       <c r="N61" t="n">
-        <v>16</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
+        <v>396</v>
+      </c>
+      <c r="O61" t="n">
+        <v>6670</v>
+      </c>
       <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+        <v>305</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5265</v>
+      </c>
       <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3780</v>
+      </c>
+      <c r="T61" t="n">
+        <v>163060</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3735</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1320</v>
+      </c>
       <c r="W61" t="n">
-        <v>774</v>
+        <v>7159</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z61" t="n">
         <v>44</v>
       </c>
       <c r="AA61" t="n">
-        <v>2898</v>
-      </c>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+        <v>2871</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>22.50753505438344</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>21.05633802816902</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>19.54429735234216</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>17.02567760342368</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>22.77692415141779</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>34.26605504587156</v>
+      </c>
       <c r="AH61" t="n">
         <v>2015</v>
       </c>
@@ -6264,89 +6246,99 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ZCTA5 02907</t>
+          <t>ZCTA5 02911</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>258825</v>
+        <v>186625</v>
       </c>
       <c r="E62" t="n">
-        <v>11186</v>
+        <v>7821</v>
       </c>
       <c r="F62" t="n">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="G62" t="n">
-        <v>26045</v>
+        <v>30855</v>
       </c>
       <c r="H62" t="n">
-        <v>902</v>
+        <v>1004</v>
       </c>
       <c r="I62" t="n">
-        <v>17515</v>
+        <v>20030</v>
       </c>
       <c r="J62" t="n">
-        <v>1387</v>
+        <v>1027</v>
       </c>
       <c r="K62" t="n">
-        <v>26240</v>
+        <v>21550</v>
       </c>
       <c r="L62" t="n">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="M62" t="n">
-        <v>12415</v>
+        <v>14060</v>
       </c>
       <c r="N62" t="n">
-        <v>837</v>
+        <v>284</v>
       </c>
       <c r="O62" t="n">
-        <v>16510</v>
+        <v>5230</v>
       </c>
       <c r="P62" t="n">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="Q62" t="n">
-        <v>4870</v>
+        <v>6900</v>
       </c>
       <c r="R62" t="n">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="S62" t="n">
-        <v>1900</v>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+        <v>750</v>
+      </c>
+      <c r="T62" t="n">
+        <v>169420</v>
+      </c>
+      <c r="U62" t="n">
+        <v>14000</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1300</v>
+      </c>
       <c r="W62" t="n">
-        <v>9297</v>
+        <v>7351</v>
       </c>
       <c r="X62" t="n">
-        <v>1103</v>
+        <v>248</v>
       </c>
       <c r="Y62" t="n">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="Z62" t="n">
         <v>44</v>
       </c>
       <c r="AA62" t="n">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="AB62" t="n">
-        <v>23.13829787234043</v>
+        <v>23.86203810254443</v>
       </c>
       <c r="AC62" t="n">
-        <v>19.85414767547858</v>
+        <v>22.40642888595332</v>
       </c>
       <c r="AD62" t="n">
-        <v>18.32859174964438</v>
+        <v>20.89788732394366</v>
       </c>
       <c r="AE62" t="n">
-        <v>17.38211382113821</v>
-      </c>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
+        <v>23.46228239845261</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>23.04720446197796</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>56.45161290322581</v>
+      </c>
       <c r="AH62" t="n">
         <v>2015</v>
       </c>
@@ -6360,63 +6352,87 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ZCTA5 02804</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>ZCTA5 02809</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>253840</v>
+      </c>
       <c r="E63" t="n">
-        <v>1387</v>
+        <v>10174</v>
       </c>
       <c r="F63" t="n">
-        <v>373</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>1400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>44770</v>
+      </c>
       <c r="H63" t="n">
-        <v>195</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1349</v>
+      </c>
+      <c r="I63" t="n">
+        <v>34940</v>
+      </c>
       <c r="J63" t="n">
-        <v>168</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>1066</v>
+      </c>
+      <c r="K63" t="n">
+        <v>24745</v>
+      </c>
       <c r="L63" t="n">
-        <v>69</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>10135</v>
+      </c>
       <c r="N63" t="n">
-        <v>45</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
+        <v>608</v>
+      </c>
+      <c r="O63" t="n">
+        <v>10720</v>
+      </c>
       <c r="P63" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+        <v>419</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>8090</v>
+      </c>
       <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3545</v>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="n">
-        <v>1308</v>
+        <v>9199</v>
       </c>
       <c r="X63" t="n">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Z63" t="n">
         <v>44</v>
       </c>
       <c r="AA63" t="n">
-        <v>2804</v>
-      </c>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
+        <v>2809</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>24.94987222331433</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>28.99599854492543</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>22.13197969543147</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>18.31548198636806</v>
+      </c>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="n">
@@ -6432,87 +6448,63 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ZCTA5 02814</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>121960</v>
-      </c>
+          <t>ZCTA5 02830</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>3756</v>
+        <v>2975</v>
       </c>
       <c r="F64" t="n">
-        <v>717</v>
-      </c>
-      <c r="G64" t="n">
-        <v>23110</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>380</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10635</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>421</v>
-      </c>
-      <c r="K64" t="n">
-        <v>10675</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>146</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4435</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>220</v>
-      </c>
-      <c r="O64" t="n">
-        <v>3575</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>129</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3750</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>-666666666</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="n">
-        <v>3690</v>
+        <v>2924</v>
       </c>
       <c r="X64" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z64" t="n">
         <v>44</v>
       </c>
       <c r="AA64" t="n">
-        <v>2814</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>32.47071352502662</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>30.76116681859617</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>26.64902998236332</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>20.98853868194842</v>
-      </c>
+        <v>2830</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="n">
@@ -6528,49 +6520,49 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ZCTA5 02817</t>
+          <t>ZCTA5 02839</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>2777</v>
+        <v>782</v>
       </c>
       <c r="F65" t="n">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>475</v>
+        <v>88</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>446</v>
+        <v>53</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="n">
-        <v>2723</v>
+        <v>782</v>
       </c>
       <c r="X65" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y65" t="n">
         <v>0</v>
@@ -6579,7 +6571,7 @@
         <v>44</v>
       </c>
       <c r="AA65" t="n">
-        <v>2817</v>
+        <v>2839</v>
       </c>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
@@ -6600,31 +6592,31 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ZCTA5 02822</t>
+          <t>ZCTA5 02875</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>3190</v>
+        <v>268</v>
       </c>
       <c r="F66" t="n">
-        <v>548</v>
+        <v>58</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
@@ -6639,10 +6631,10 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>3115</v>
+        <v>268</v>
       </c>
       <c r="X66" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -6651,7 +6643,7 @@
         <v>44</v>
       </c>
       <c r="AA66" t="n">
-        <v>2822</v>
+        <v>2875</v>
       </c>
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
@@ -6672,49 +6664,49 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ZCTA5 02835</t>
+          <t>ZCTA5 02807</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>2518</v>
+        <v>331</v>
       </c>
       <c r="F67" t="n">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>398</v>
+        <v>57</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="n">
-        <v>2365</v>
+        <v>286</v>
       </c>
       <c r="X67" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -6723,7 +6715,7 @@
         <v>44</v>
       </c>
       <c r="AA67" t="n">
-        <v>2835</v>
+        <v>2807</v>
       </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
@@ -6744,89 +6736,99 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ZCTA5 02813</t>
+          <t>ZCTA5 02852</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>95635</v>
+        <v>251520</v>
       </c>
       <c r="E68" t="n">
-        <v>3445</v>
+        <v>10813</v>
       </c>
       <c r="F68" t="n">
-        <v>471</v>
+        <v>1350</v>
       </c>
       <c r="G68" t="n">
-        <v>17440</v>
+        <v>34195</v>
       </c>
       <c r="H68" t="n">
-        <v>461</v>
+        <v>1776</v>
       </c>
       <c r="I68" t="n">
-        <v>10260</v>
+        <v>39950</v>
       </c>
       <c r="J68" t="n">
-        <v>374</v>
+        <v>1631</v>
       </c>
       <c r="K68" t="n">
-        <v>8520</v>
+        <v>36820</v>
       </c>
       <c r="L68" t="n">
-        <v>107</v>
+        <v>880</v>
       </c>
       <c r="M68" t="n">
-        <v>2080</v>
+        <v>20855</v>
       </c>
       <c r="N68" t="n">
-        <v>254</v>
+        <v>763</v>
       </c>
       <c r="O68" t="n">
-        <v>6130</v>
+        <v>13415</v>
       </c>
       <c r="P68" t="n">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="Q68" t="n">
-        <v>1855</v>
+        <v>5425</v>
       </c>
       <c r="R68" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="S68" t="n">
-        <v>970</v>
-      </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+        <v>1885</v>
+      </c>
+      <c r="T68" t="n">
+        <v>240040</v>
+      </c>
+      <c r="U68" t="n">
+        <v>8275</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1355</v>
+      </c>
       <c r="W68" t="n">
-        <v>3388</v>
+        <v>10409</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="Y68" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Z68" t="n">
         <v>44</v>
       </c>
       <c r="AA68" t="n">
-        <v>2813</v>
+        <v>2852</v>
       </c>
       <c r="AB68" t="n">
-        <v>27.76052249637156</v>
+        <v>23.26088966984185</v>
       </c>
       <c r="AC68" t="n">
-        <v>29.72103004291845</v>
+        <v>23.71880998080614</v>
       </c>
       <c r="AD68" t="n">
-        <v>22.03742203742204</v>
+        <v>22.9689366786141</v>
       </c>
       <c r="AE68" t="n">
-        <v>24.19696969696969</v>
-      </c>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
+        <v>17.12727272727273</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>23.06081275819003</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>41.79292929292929</v>
+      </c>
       <c r="AH68" t="n">
         <v>2015</v>
       </c>
@@ -6840,89 +6842,99 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ZCTA5 02840</t>
+          <t>ZCTA5 02879</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>239025</v>
+        <v>231570</v>
       </c>
       <c r="E69" t="n">
-        <v>11721</v>
+        <v>9340</v>
       </c>
       <c r="F69" t="n">
-        <v>1469</v>
+        <v>1597</v>
       </c>
       <c r="G69" t="n">
-        <v>39525</v>
+        <v>43730</v>
       </c>
       <c r="H69" t="n">
-        <v>1509</v>
+        <v>1409</v>
       </c>
       <c r="I69" t="n">
-        <v>31910</v>
+        <v>33160</v>
       </c>
       <c r="J69" t="n">
-        <v>1667</v>
+        <v>1342</v>
       </c>
       <c r="K69" t="n">
-        <v>28595</v>
+        <v>30060</v>
       </c>
       <c r="L69" t="n">
-        <v>808</v>
+        <v>625</v>
       </c>
       <c r="M69" t="n">
-        <v>11025</v>
+        <v>11420</v>
       </c>
       <c r="N69" t="n">
-        <v>1249</v>
+        <v>604</v>
       </c>
       <c r="O69" t="n">
-        <v>17550</v>
+        <v>11110</v>
       </c>
       <c r="P69" t="n">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="Q69" t="n">
-        <v>9365</v>
+        <v>8300</v>
       </c>
       <c r="R69" t="n">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="S69" t="n">
-        <v>2925</v>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+        <v>1850</v>
+      </c>
+      <c r="T69" t="n">
+        <v>211950</v>
+      </c>
+      <c r="U69" t="n">
+        <v>13240</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3890</v>
+      </c>
       <c r="W69" t="n">
-        <v>9280</v>
+        <v>8779</v>
       </c>
       <c r="X69" t="n">
-        <v>342</v>
+        <v>159</v>
       </c>
       <c r="Y69" t="n">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="Z69" t="n">
         <v>44</v>
       </c>
       <c r="AA69" t="n">
-        <v>2840</v>
+        <v>2879</v>
       </c>
       <c r="AB69" t="n">
-        <v>20.3928845661633</v>
+        <v>24.79336188436831</v>
       </c>
       <c r="AC69" t="n">
-        <v>23.98757555406313</v>
+        <v>25.57884231536926</v>
       </c>
       <c r="AD69" t="n">
-        <v>16.00808080808081</v>
+        <v>21.08795119471276</v>
       </c>
       <c r="AE69" t="n">
-        <v>15.90721040189125</v>
-      </c>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
+        <v>22.86219081272085</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>24.14284087025857</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>83.27044025157232</v>
+      </c>
       <c r="AH69" t="n">
         <v>2015</v>
       </c>
@@ -6936,76 +6948,98 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ZCTA5 02836</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>ZCTA5 02886</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>315170</v>
+      </c>
       <c r="E70" t="n">
-        <v>76</v>
+        <v>13606</v>
       </c>
       <c r="F70" t="n">
-        <v>15</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>1819</v>
+      </c>
+      <c r="G70" t="n">
+        <v>48650</v>
+      </c>
       <c r="H70" t="n">
-        <v>17</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>2085</v>
+      </c>
+      <c r="I70" t="n">
+        <v>46630</v>
+      </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>1954</v>
+      </c>
+      <c r="K70" t="n">
+        <v>39040</v>
+      </c>
       <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>1134</v>
+      </c>
+      <c r="M70" t="n">
+        <v>22775</v>
+      </c>
       <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
+        <v>1162</v>
+      </c>
+      <c r="O70" t="n">
+        <v>27675</v>
+      </c>
       <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2270</v>
+      </c>
       <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="inlineStr"/>
+        <v>191</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2765</v>
+      </c>
       <c r="T70" t="n">
-        <v>1610</v>
+        <v>297905</v>
       </c>
       <c r="U70" t="n">
-        <v>-666666666</v>
+        <v>13130</v>
       </c>
       <c r="V70" t="n">
-        <v>-666666666</v>
+        <v>2940</v>
       </c>
       <c r="W70" t="n">
-        <v>76</v>
+        <v>13093</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="Y70" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Z70" t="n">
         <v>44</v>
       </c>
       <c r="AA70" t="n">
-        <v>2836</v>
-      </c>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
+        <v>2886</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>23.16404527414376</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>24.40573770491803</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>20.01781088082901</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>22.75455927051672</v>
+      </c>
       <c r="AF70" t="n">
-        <v>21.18421052631579</v>
-      </c>
-      <c r="AG70" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>22.752997785076</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>60.22935779816514</v>
       </c>
       <c r="AH70" t="n">
         <v>2015</v>
@@ -7020,86 +7054,86 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ZCTA5 02837</t>
+          <t>ZCTA5 02889</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>43540</v>
+        <v>361265</v>
       </c>
       <c r="E71" t="n">
-        <v>1477</v>
+        <v>14011</v>
       </c>
       <c r="F71" t="n">
-        <v>288</v>
+        <v>2123</v>
       </c>
       <c r="G71" t="n">
-        <v>7015</v>
+        <v>54285</v>
       </c>
       <c r="H71" t="n">
-        <v>164</v>
+        <v>1709</v>
       </c>
       <c r="I71" t="n">
-        <v>4045</v>
+        <v>46880</v>
       </c>
       <c r="J71" t="n">
-        <v>210</v>
+        <v>1374</v>
       </c>
       <c r="K71" t="n">
-        <v>5615</v>
+        <v>32780</v>
       </c>
       <c r="L71" t="n">
-        <v>66</v>
+        <v>785</v>
       </c>
       <c r="M71" t="n">
-        <v>2115</v>
+        <v>14585</v>
       </c>
       <c r="N71" t="n">
-        <v>105</v>
+        <v>790</v>
       </c>
       <c r="O71" t="n">
-        <v>1380</v>
+        <v>17425</v>
       </c>
       <c r="P71" t="n">
-        <v>56</v>
+        <v>412</v>
       </c>
       <c r="Q71" t="n">
-        <v>820</v>
+        <v>10245</v>
       </c>
       <c r="R71" t="n">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="S71" t="n">
-        <v>630</v>
+        <v>3390</v>
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="n">
-        <v>1358</v>
+        <v>13750</v>
       </c>
       <c r="X71" t="n">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="Y71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z71" t="n">
         <v>44</v>
       </c>
       <c r="AA71" t="n">
-        <v>2837</v>
+        <v>2889</v>
       </c>
       <c r="AB71" t="n">
-        <v>29.47867298578199</v>
+        <v>25.78438369852259</v>
       </c>
       <c r="AC71" t="n">
-        <v>24.46902654867257</v>
+        <v>26.40005219206681</v>
       </c>
       <c r="AD71" t="n">
-        <v>28.0072463768116</v>
+        <v>21.93839740620658</v>
       </c>
       <c r="AE71" t="n">
-        <v>13.66459627329192</v>
+        <v>23.01996672212978</v>
       </c>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
@@ -7116,35 +7150,35 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ZCTA5 02858</t>
+          <t>ZCTA5 02874</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>421</v>
+        <v>3200</v>
       </c>
       <c r="F72" t="n">
-        <v>187</v>
+        <v>663</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>73</v>
+        <v>476</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>30</v>
+        <v>453</v>
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
@@ -7155,19 +7189,19 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="n">
-        <v>421</v>
+        <v>3076</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z72" t="n">
         <v>44</v>
       </c>
       <c r="AA72" t="n">
-        <v>2858</v>
+        <v>2874</v>
       </c>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
@@ -7188,86 +7222,86 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ZCTA5 02882</t>
+          <t>ZCTA5 02885</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>181710</v>
+        <v>130330</v>
       </c>
       <c r="E73" t="n">
-        <v>6843</v>
+        <v>5293</v>
       </c>
       <c r="F73" t="n">
-        <v>827</v>
+        <v>964</v>
       </c>
       <c r="G73" t="n">
-        <v>23725</v>
+        <v>26215</v>
       </c>
       <c r="H73" t="n">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="I73" t="n">
-        <v>19410</v>
+        <v>12990</v>
       </c>
       <c r="J73" t="n">
-        <v>1231</v>
+        <v>433</v>
       </c>
       <c r="K73" t="n">
-        <v>29210</v>
+        <v>11220</v>
       </c>
       <c r="L73" t="n">
-        <v>519</v>
+        <v>316</v>
       </c>
       <c r="M73" t="n">
-        <v>12955</v>
+        <v>5175</v>
       </c>
       <c r="N73" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
       <c r="O73" t="n">
-        <v>10810</v>
+        <v>5595</v>
       </c>
       <c r="P73" t="n">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="Q73" t="n">
-        <v>6960</v>
+        <v>3560</v>
       </c>
       <c r="R73" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="S73" t="n">
-        <v>2975</v>
+        <v>3620</v>
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="n">
-        <v>6575</v>
+        <v>4858</v>
       </c>
       <c r="X73" t="n">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y73" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="Z73" t="n">
         <v>44</v>
       </c>
       <c r="AA73" t="n">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="AB73" t="n">
-        <v>26.55414291977203</v>
+        <v>24.62308709616475</v>
       </c>
       <c r="AC73" t="n">
-        <v>28.47194719471948</v>
+        <v>25.05111821086262</v>
       </c>
       <c r="AD73" t="n">
-        <v>24.09428571428571</v>
+        <v>21.88918558077437</v>
       </c>
       <c r="AE73" t="n">
-        <v>21.02958579881657</v>
+        <v>20.94965675057208</v>
       </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
@@ -7284,89 +7318,99 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ZCTA5 02891</t>
+          <t>ZCTA5 02888</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>219435</v>
+        <v>232805</v>
       </c>
       <c r="E74" t="n">
-        <v>10024</v>
+        <v>10427</v>
       </c>
       <c r="F74" t="n">
-        <v>1270</v>
+        <v>1304</v>
       </c>
       <c r="G74" t="n">
-        <v>31920</v>
+        <v>31495</v>
       </c>
       <c r="H74" t="n">
-        <v>1078</v>
+        <v>1351</v>
       </c>
       <c r="I74" t="n">
-        <v>21420</v>
+        <v>26830</v>
       </c>
       <c r="J74" t="n">
-        <v>1348</v>
+        <v>1526</v>
       </c>
       <c r="K74" t="n">
-        <v>22395</v>
+        <v>34695</v>
       </c>
       <c r="L74" t="n">
-        <v>893</v>
+        <v>736</v>
       </c>
       <c r="M74" t="n">
-        <v>17220</v>
+        <v>14610</v>
       </c>
       <c r="N74" t="n">
-        <v>617</v>
+        <v>376</v>
       </c>
       <c r="O74" t="n">
-        <v>10170</v>
+        <v>9025</v>
       </c>
       <c r="P74" t="n">
-        <v>247</v>
+        <v>393</v>
       </c>
       <c r="Q74" t="n">
-        <v>4805</v>
+        <v>7935</v>
       </c>
       <c r="R74" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="S74" t="n">
-        <v>2250</v>
-      </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
+        <v>1590</v>
+      </c>
+      <c r="T74" t="n">
+        <v>226750</v>
+      </c>
+      <c r="U74" t="n">
+        <v>4700</v>
+      </c>
+      <c r="V74" t="n">
+        <v>865</v>
+      </c>
       <c r="W74" t="n">
-        <v>9593</v>
+        <v>10235</v>
       </c>
       <c r="X74" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Z74" t="n">
         <v>44</v>
       </c>
       <c r="AA74" t="n">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="AB74" t="n">
-        <v>21.89096169193935</v>
+        <v>22.32713148556632</v>
       </c>
       <c r="AC74" t="n">
-        <v>22.71720613287905</v>
+        <v>21.96798493408663</v>
       </c>
       <c r="AD74" t="n">
-        <v>17.67737617135208</v>
+        <v>21.79708222811671</v>
       </c>
       <c r="AE74" t="n">
-        <v>17.33217592592593</v>
-      </c>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
+        <v>22.05461638491548</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>22.15437225207621</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>59.49367088607595</v>
+      </c>
       <c r="AH74" t="n">
         <v>2015</v>
       </c>
@@ -7380,87 +7424,63 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ZCTA5 02842</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>139405</v>
-      </c>
+          <t>ZCTA5 02894</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>7671</v>
+        <v>471</v>
       </c>
       <c r="F75" t="n">
-        <v>1007</v>
-      </c>
-      <c r="G75" t="n">
-        <v>16815</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>734</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9380</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>1074</v>
-      </c>
-      <c r="K75" t="n">
-        <v>16310</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>591</v>
-      </c>
-      <c r="M75" t="n">
-        <v>8970</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>720</v>
-      </c>
-      <c r="O75" t="n">
-        <v>12010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>215</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2645</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>101</v>
-      </c>
-      <c r="S75" t="n">
-        <v>815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="n">
-        <v>7194</v>
+        <v>471</v>
       </c>
       <c r="X75" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Z75" t="n">
         <v>44</v>
       </c>
       <c r="AA75" t="n">
-        <v>2842</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>18.17298918002868</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>15.04595060310167</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>15.18318318318318</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>15.67379679144385</v>
-      </c>
+        <v>2894</v>
+      </c>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="n">
@@ -7476,98 +7496,98 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ZCTA5 02861</t>
+          <t>ZCTA5 02903</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>291160</v>
+        <v>100630</v>
       </c>
       <c r="E76" t="n">
-        <v>12444</v>
+        <v>4978</v>
       </c>
       <c r="F76" t="n">
-        <v>1412</v>
+        <v>314</v>
       </c>
       <c r="G76" t="n">
-        <v>34125</v>
+        <v>9760</v>
       </c>
       <c r="H76" t="n">
-        <v>1968</v>
+        <v>441</v>
       </c>
       <c r="I76" t="n">
-        <v>41330</v>
+        <v>7065</v>
       </c>
       <c r="J76" t="n">
-        <v>1250</v>
+        <v>673</v>
       </c>
       <c r="K76" t="n">
-        <v>29175</v>
+        <v>11155</v>
       </c>
       <c r="L76" t="n">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="M76" t="n">
-        <v>10900</v>
+        <v>7020</v>
       </c>
       <c r="N76" t="n">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="O76" t="n">
-        <v>11460</v>
+        <v>6740</v>
       </c>
       <c r="P76" t="n">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="Q76" t="n">
-        <v>4850</v>
+        <v>2815</v>
       </c>
       <c r="R76" t="n">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="S76" t="n">
-        <v>1740</v>
+        <v>2590</v>
       </c>
       <c r="T76" t="n">
-        <v>271630</v>
+        <v>49550</v>
       </c>
       <c r="U76" t="n">
-        <v>11760</v>
+        <v>19270</v>
       </c>
       <c r="V76" t="n">
-        <v>2025</v>
+        <v>13255</v>
       </c>
       <c r="W76" t="n">
-        <v>11792</v>
+        <v>2439</v>
       </c>
       <c r="X76" t="n">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="Y76" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Z76" t="n">
         <v>44</v>
       </c>
       <c r="AA76" t="n">
-        <v>2861</v>
+        <v>2903</v>
       </c>
       <c r="AB76" t="n">
-        <v>23.39762134361942</v>
+        <v>20.21494576134994</v>
       </c>
       <c r="AC76" t="n">
-        <v>22.32396449704142</v>
+        <v>22.28476821192053</v>
       </c>
       <c r="AD76" t="n">
-        <v>22.17764250138351</v>
+        <v>15.2347024308466</v>
       </c>
       <c r="AE76" t="n">
-        <v>20.08620689655172</v>
+        <v>13.08904109589041</v>
       </c>
       <c r="AF76" t="n">
-        <v>23.03510854816825</v>
+        <v>20.31570315703157</v>
       </c>
       <c r="AG76" t="n">
-        <v>46.2992125984252</v>
+        <v>44.60648148148148</v>
       </c>
       <c r="AH76" t="n">
         <v>2015</v>
@@ -7582,99 +7602,89 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ZCTA5 02906</t>
+          <t>ZCTA5 02908</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>292210</v>
+        <v>364580</v>
       </c>
       <c r="E77" t="n">
-        <v>14026</v>
+        <v>16264</v>
       </c>
       <c r="F77" t="n">
-        <v>1321</v>
+        <v>1772</v>
       </c>
       <c r="G77" t="n">
-        <v>29330</v>
+        <v>47960</v>
       </c>
       <c r="H77" t="n">
-        <v>1547</v>
+        <v>1556</v>
       </c>
       <c r="I77" t="n">
-        <v>38160</v>
+        <v>31750</v>
       </c>
       <c r="J77" t="n">
-        <v>2648</v>
+        <v>2162</v>
       </c>
       <c r="K77" t="n">
-        <v>55775</v>
+        <v>43450</v>
       </c>
       <c r="L77" t="n">
-        <v>1508</v>
+        <v>910</v>
       </c>
       <c r="M77" t="n">
-        <v>28890</v>
+        <v>16440</v>
       </c>
       <c r="N77" t="n">
-        <v>2325</v>
+        <v>1290</v>
       </c>
       <c r="O77" t="n">
-        <v>41545</v>
+        <v>22555</v>
       </c>
       <c r="P77" t="n">
-        <v>726</v>
+        <v>883</v>
       </c>
       <c r="Q77" t="n">
-        <v>10675</v>
+        <v>15045</v>
       </c>
       <c r="R77" t="n">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="S77" t="n">
-        <v>4240</v>
-      </c>
-      <c r="T77" t="n">
-        <v>192120</v>
-      </c>
-      <c r="U77" t="n">
-        <v>54480</v>
-      </c>
-      <c r="V77" t="n">
-        <v>8115</v>
-      </c>
+        <v>5380</v>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="n">
-        <v>9258</v>
+        <v>13796</v>
       </c>
       <c r="X77" t="n">
-        <v>1112</v>
+        <v>1043</v>
       </c>
       <c r="Y77" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z77" t="n">
         <v>44</v>
       </c>
       <c r="AA77" t="n">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="AB77" t="n">
-        <v>20.83345216027378</v>
+        <v>22.41637973438269</v>
       </c>
       <c r="AC77" t="n">
-        <v>23.53207810320781</v>
+        <v>23.95132211538462</v>
       </c>
       <c r="AD77" t="n">
-        <v>20.37175168431184</v>
+        <v>19.49544270833333</v>
       </c>
       <c r="AE77" t="n">
-        <v>17.11569977056703</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>20.75178224238497</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>48.99280575539569</v>
-      </c>
+        <v>17.30326737229636</v>
+      </c>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="n">
         <v>2015</v>
       </c>
@@ -7688,99 +7698,89 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ZCTA5 02905</t>
+          <t>ZCTA5 02920</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>221250</v>
+        <v>341890</v>
       </c>
       <c r="E78" t="n">
-        <v>10067</v>
+        <v>15538</v>
       </c>
       <c r="F78" t="n">
-        <v>1251</v>
+        <v>2478</v>
       </c>
       <c r="G78" t="n">
-        <v>33995</v>
+        <v>61350</v>
       </c>
       <c r="H78" t="n">
-        <v>1391</v>
+        <v>1938</v>
       </c>
       <c r="I78" t="n">
-        <v>26855</v>
+        <v>41145</v>
       </c>
       <c r="J78" t="n">
-        <v>1130</v>
+        <v>2248</v>
       </c>
       <c r="K78" t="n">
-        <v>17895</v>
+        <v>49610</v>
       </c>
       <c r="L78" t="n">
-        <v>644</v>
+        <v>1062</v>
       </c>
       <c r="M78" t="n">
-        <v>10090</v>
+        <v>16400</v>
       </c>
       <c r="N78" t="n">
-        <v>801</v>
+        <v>1067</v>
       </c>
       <c r="O78" t="n">
-        <v>13485</v>
+        <v>16560</v>
       </c>
       <c r="P78" t="n">
-        <v>462</v>
+        <v>577</v>
       </c>
       <c r="Q78" t="n">
-        <v>8495</v>
+        <v>10970</v>
       </c>
       <c r="R78" t="n">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="S78" t="n">
-        <v>1530</v>
-      </c>
-      <c r="T78" t="n">
-        <v>168010</v>
-      </c>
-      <c r="U78" t="n">
-        <v>40535</v>
-      </c>
-      <c r="V78" t="n">
-        <v>7720</v>
-      </c>
+        <v>3760</v>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="n">
-        <v>8095</v>
+        <v>14900</v>
       </c>
       <c r="X78" t="n">
-        <v>996</v>
+        <v>414</v>
       </c>
       <c r="Y78" t="n">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="Z78" t="n">
         <v>44</v>
       </c>
       <c r="AA78" t="n">
-        <v>2905</v>
+        <v>2920</v>
       </c>
       <c r="AB78" t="n">
-        <v>21.97774908115625</v>
+        <v>22.003475350753</v>
       </c>
       <c r="AC78" t="n">
-        <v>23.03179409538228</v>
+        <v>23.20991847826087</v>
       </c>
       <c r="AD78" t="n">
-        <v>15.77508455467869</v>
+        <v>19.94259818731118</v>
       </c>
       <c r="AE78" t="n">
-        <v>17.40300870942201</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>20.75478690549722</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>40.69779116465863</v>
-      </c>
+        <v>16.74574209245742</v>
+      </c>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="n">
         <v>2015</v>
       </c>
